--- a/叶焕发的学习规划表.xlsx
+++ b/叶焕发的学习规划表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11356\Desktop\NAU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSW00_910641\Documents\GitHub\NAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC76026-E6EE-4EA0-BCFF-0B22BD7B01D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB2088C-D3D7-453D-88CF-EE70DAECFB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{E377C15B-1D26-438C-8534-8CC4902F7C32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E377C15B-1D26-438C-8534-8CC4902F7C32}"/>
   </bookViews>
   <sheets>
     <sheet name="学习计划表 (信息安全)" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -1106,49 +1106,49 @@
     <xf numFmtId="55" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规 2" xfId="1" xr:uid="{8471EB3C-3E2B-4F8F-BAD8-343074CE5B20}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{8471EB3C-3E2B-4F8F-BAD8-343074CE5B20}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1164,9 +1164,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1204,7 +1204,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1310,7 +1310,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1452,7 +1452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1466,11 +1466,11 @@
       <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="5" max="29" width="5.6640625" customWidth="1"/>
+    <col min="5" max="29" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1481,7 +1481,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="36">
+    <row r="2" spans="1:29" ht="37.5">
       <c r="B2" s="40" t="s">
         <v>100</v>
       </c>
@@ -2697,23 +2697,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62398E3D-9E42-4D35-B734-C747CB49DED4}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="27"/>
-    <col min="3" max="3" width="12.1640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="27"/>
+    <col min="3" max="3" width="12.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="27" customWidth="1"/>
     <col min="7" max="7" width="61.5" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="27"/>
+    <col min="8" max="16384" width="8.625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="28" customFormat="1">
+    <row r="1" spans="1:9" s="28" customFormat="1" ht="18">
       <c r="A1" s="24" t="s">
         <v>51</v>
       </c>
@@ -2737,13 +2737,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="51" t="s">
         <v>108</v>
       </c>
       <c r="D2" s="41" t="s">
@@ -2759,9 +2759,9 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="41" t="s">
         <v>60</v>
       </c>
@@ -2775,9 +2775,9 @@
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="41" t="s">
         <v>61</v>
       </c>
@@ -2787,9 +2787,9 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="41" t="s">
         <v>62</v>
       </c>
@@ -2799,9 +2799,9 @@
       <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="41" t="s">
         <v>63</v>
       </c>
@@ -2814,11 +2814,11 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="51"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -2829,9 +2829,9 @@
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="51"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="56"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="41" t="s">
         <v>60</v>
       </c>
@@ -2840,9 +2840,9 @@
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="51"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="56"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="41" t="s">
         <v>61</v>
       </c>
@@ -2851,9 +2851,9 @@
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="51"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="56"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="41" t="s">
         <v>62</v>
       </c>
@@ -2862,9 +2862,9 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="41" t="s">
         <v>63</v>
       </c>
@@ -2873,11 +2873,11 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="51"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="59" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="41" t="s">
@@ -2888,9 +2888,9 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="51"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="41" t="s">
         <v>66</v>
       </c>
@@ -2899,9 +2899,9 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="51"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="56"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="41" t="s">
         <v>61</v>
       </c>
@@ -2910,9 +2910,9 @@
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="41" t="s">
         <v>62</v>
       </c>
@@ -2920,10 +2920,10 @@
       <c r="F15" s="42"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:9" ht="14.75" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="57"/>
+    <row r="16" spans="1:9" ht="14.85" customHeight="1">
+      <c r="A16" s="57"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="41" t="s">
         <v>63</v>
       </c>
@@ -2932,11 +2932,11 @@
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="51"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="51" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="41" t="s">
@@ -2951,9 +2951,9 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="51"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="41" t="s">
         <v>102</v>
       </c>
@@ -2966,9 +2966,9 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="51"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="41" t="s">
         <v>69</v>
       </c>
@@ -2981,9 +2981,9 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="41" t="s">
         <v>70</v>
       </c>
@@ -2996,13 +2996,13 @@
       <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D21" s="41" t="s">
@@ -3017,9 +3017,9 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="51"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="41" t="s">
         <v>60</v>
       </c>
@@ -3032,9 +3032,9 @@
       <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="51"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="41" t="s">
         <v>61</v>
       </c>
@@ -3047,9 +3047,9 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="51"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="41" t="s">
         <v>62</v>
       </c>
@@ -3058,9 +3058,9 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="51"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="41" t="s">
         <v>63</v>
       </c>
@@ -3073,11 +3073,11 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="51"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -3092,9 +3092,9 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="51"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="41" t="s">
         <v>60</v>
       </c>
@@ -3107,9 +3107,9 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="51"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="41" t="s">
         <v>73</v>
       </c>
@@ -3122,9 +3122,9 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="51"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="41" t="s">
         <v>62</v>
       </c>
@@ -3133,9 +3133,9 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="51"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="41" t="s">
         <v>63</v>
       </c>
@@ -3148,11 +3148,11 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="51"/>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="59" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="41" t="s">
@@ -3167,9 +3167,9 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="51"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="56"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="41" t="s">
         <v>60</v>
       </c>
@@ -3182,9 +3182,9 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="51"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="56"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="41" t="s">
         <v>73</v>
       </c>
@@ -3197,9 +3197,9 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="51"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="56"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="41" t="s">
         <v>62</v>
       </c>
@@ -3208,9 +3208,9 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="51"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="57"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="41" t="s">
         <v>75</v>
       </c>
@@ -3223,11 +3223,11 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="51"/>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="41" t="s">
@@ -3242,9 +3242,9 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="51"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="41" t="s">
         <v>60</v>
       </c>
@@ -3257,9 +3257,9 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="51"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="41" t="s">
         <v>73</v>
       </c>
@@ -3272,9 +3272,9 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="51"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="41" t="s">
         <v>62</v>
       </c>
@@ -3283,9 +3283,9 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="51"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="41" t="s">
         <v>63</v>
       </c>
@@ -3298,35 +3298,39 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="51"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="41"/>
+      <c r="E41" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F41" s="42"/>
       <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="51"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="41"/>
+      <c r="E42" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F42" s="42"/>
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="51"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="54"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="41" t="s">
         <v>73</v>
       </c>
@@ -3335,9 +3339,9 @@
       <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="51"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="41" t="s">
         <v>62</v>
       </c>
@@ -3346,46 +3350,52 @@
       <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="51"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="54"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E45" s="41"/>
+      <c r="E45" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F45" s="42"/>
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="51"/>
-      <c r="B46" s="53" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D46" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="41"/>
+      <c r="E46" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F46" s="42"/>
       <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="51"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="54"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="41"/>
+      <c r="E47" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F47" s="42"/>
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="51"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="54"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="41" t="s">
         <v>73</v>
       </c>
@@ -3394,9 +3404,9 @@
       <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="51"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="41" t="s">
         <v>62</v>
       </c>
@@ -3405,24 +3415,26 @@
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="52"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="54"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="41"/>
+      <c r="E50" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F50" s="42"/>
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="41" t="s">
@@ -3434,9 +3446,9 @@
       <c r="I51" s="37"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="59"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="41" t="s">
         <v>60</v>
       </c>
@@ -3446,9 +3458,9 @@
       <c r="I52" s="37"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="59"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="54"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="41" t="s">
         <v>73</v>
       </c>
@@ -3458,9 +3470,9 @@
       <c r="I53" s="37"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="59"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="41" t="s">
         <v>62</v>
       </c>
@@ -3470,9 +3482,9 @@
       <c r="I54" s="37"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="59"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="54"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="41" t="s">
         <v>63</v>
       </c>
@@ -3481,11 +3493,11 @@
       <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="59"/>
-      <c r="B56" s="53" t="s">
+      <c r="A56" s="56"/>
+      <c r="B56" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D56" s="41" t="s">
@@ -3496,9 +3508,9 @@
       <c r="G56" s="34"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="59"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="54"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="41" t="s">
         <v>60</v>
       </c>
@@ -3507,9 +3519,9 @@
       <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="59"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="54"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="41" t="s">
         <v>73</v>
       </c>
@@ -3518,9 +3530,9 @@
       <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="59"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="54"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="41" t="s">
         <v>62</v>
       </c>
@@ -3529,9 +3541,9 @@
       <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="59"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="54"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="41" t="s">
         <v>63</v>
       </c>
@@ -3540,11 +3552,11 @@
       <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="59"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="56"/>
+      <c r="B61" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D61" s="41" t="s">
@@ -3555,9 +3567,9 @@
       <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="59"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="54"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="41" t="s">
         <v>60</v>
       </c>
@@ -3566,9 +3578,9 @@
       <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="59"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="54"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="41" t="s">
         <v>73</v>
       </c>
@@ -3577,9 +3589,9 @@
       <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="59"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="54"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="41" t="s">
         <v>62</v>
       </c>
@@ -3587,10 +3599,10 @@
       <c r="F64" s="42"/>
       <c r="G64" s="26"/>
     </row>
-    <row r="65" spans="1:9" ht="14.75" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="54"/>
+    <row r="65" spans="1:9" ht="14.85" customHeight="1">
+      <c r="A65" s="56"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="41" t="s">
         <v>63</v>
       </c>
@@ -3599,13 +3611,13 @@
       <c r="G65" s="26"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D66" s="41" t="s">
@@ -3617,9 +3629,9 @@
       <c r="I66" s="37"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="59"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="54"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="41" t="s">
         <v>60</v>
       </c>
@@ -3629,9 +3641,9 @@
       <c r="I67" s="37"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="59"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="54"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="41" t="s">
         <v>73</v>
       </c>
@@ -3641,9 +3653,9 @@
       <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="59"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="54"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="41" t="s">
         <v>62</v>
       </c>
@@ -3653,9 +3665,9 @@
       <c r="I69" s="37"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="59"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="54"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="41" t="s">
         <v>63</v>
       </c>
@@ -3664,11 +3676,11 @@
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="59"/>
-      <c r="B71" s="53" t="s">
+      <c r="A71" s="56"/>
+      <c r="B71" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D71" s="41" t="s">
@@ -3679,9 +3691,9 @@
       <c r="G71" s="26"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="59"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="54"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="41" t="s">
         <v>60</v>
       </c>
@@ -3690,9 +3702,9 @@
       <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="59"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="54"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="41" t="s">
         <v>73</v>
       </c>
@@ -3701,9 +3713,9 @@
       <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="59"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="54"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="41" t="s">
         <v>62</v>
       </c>
@@ -3712,9 +3724,9 @@
       <c r="G74" s="26"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="59"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="54"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="41" t="s">
         <v>63</v>
       </c>
@@ -3723,11 +3735,11 @@
       <c r="G75" s="26"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="59"/>
-      <c r="B76" s="53" t="s">
+      <c r="A76" s="56"/>
+      <c r="B76" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="C76" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D76" s="41" t="s">
@@ -3738,9 +3750,9 @@
       <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="59"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="41" t="s">
         <v>60</v>
       </c>
@@ -3749,9 +3761,9 @@
       <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="59"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="41" t="s">
         <v>73</v>
       </c>
@@ -3760,9 +3772,9 @@
       <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="59"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="54"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="41" t="s">
         <v>62</v>
       </c>
@@ -3771,9 +3783,9 @@
       <c r="G79" s="26"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="59"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="41" t="s">
         <v>63</v>
       </c>
@@ -3782,11 +3794,11 @@
       <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="59"/>
-      <c r="B81" s="53" t="s">
+      <c r="A81" s="56"/>
+      <c r="B81" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D81" s="41" t="s">
@@ -3797,9 +3809,9 @@
       <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="59"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="54"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="51"/>
       <c r="D82" s="41" t="s">
         <v>60</v>
       </c>
@@ -3808,9 +3820,9 @@
       <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="59"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="41" t="s">
         <v>73</v>
       </c>
@@ -3819,9 +3831,9 @@
       <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="59"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="54"/>
+      <c r="A84" s="56"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="41" t="s">
         <v>62</v>
       </c>
@@ -3829,10 +3841,10 @@
       <c r="F84" s="42"/>
       <c r="G84" s="26"/>
     </row>
-    <row r="85" spans="1:9" ht="14.75" customHeight="1">
-      <c r="A85" s="59"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="54"/>
+    <row r="85" spans="1:9" ht="14.85" customHeight="1">
+      <c r="A85" s="56"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="41" t="s">
         <v>63</v>
       </c>
@@ -3841,13 +3853,13 @@
       <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="58" t="s">
+      <c r="A86" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="53" t="s">
+      <c r="B86" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D86" s="41" t="s">
@@ -3859,9 +3871,9 @@
       <c r="I86" s="37"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="59"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="54"/>
+      <c r="A87" s="56"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="51"/>
       <c r="D87" s="41" t="s">
         <v>60</v>
       </c>
@@ -3871,9 +3883,9 @@
       <c r="I87" s="37"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="59"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="54"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="51"/>
       <c r="D88" s="41" t="s">
         <v>73</v>
       </c>
@@ -3883,9 +3895,9 @@
       <c r="I88" s="37"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="59"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="54"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="51"/>
       <c r="D89" s="41" t="s">
         <v>62</v>
       </c>
@@ -3895,9 +3907,9 @@
       <c r="I89" s="37"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="59"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="54"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="51"/>
       <c r="D90" s="41" t="s">
         <v>63</v>
       </c>
@@ -3906,11 +3918,11 @@
       <c r="G90" s="26"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="59"/>
-      <c r="B91" s="53" t="s">
+      <c r="A91" s="56"/>
+      <c r="B91" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="54" t="s">
+      <c r="C91" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D91" s="41" t="s">
@@ -3921,9 +3933,9 @@
       <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="59"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="54"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="51"/>
       <c r="D92" s="41" t="s">
         <v>60</v>
       </c>
@@ -3932,9 +3944,9 @@
       <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="59"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="54"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="51"/>
       <c r="D93" s="41" t="s">
         <v>73</v>
       </c>
@@ -3943,9 +3955,9 @@
       <c r="G93" s="26"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="59"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="54"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="51"/>
       <c r="D94" s="41" t="s">
         <v>62</v>
       </c>
@@ -3953,10 +3965,10 @@
       <c r="F94" s="42"/>
       <c r="G94" s="26"/>
     </row>
-    <row r="95" spans="1:9" ht="14.75" customHeight="1">
-      <c r="A95" s="59"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="54"/>
+    <row r="95" spans="1:9" ht="14.85" customHeight="1">
+      <c r="A95" s="56"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="51"/>
       <c r="D95" s="41" t="s">
         <v>63</v>
       </c>
@@ -3966,13 +3978,13 @@
       <c r="I95" s="35"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="58" t="s">
+      <c r="A96" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="54" t="s">
+      <c r="C96" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D96" s="41" t="s">
@@ -3984,9 +3996,9 @@
       <c r="I96" s="36"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="59"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="54"/>
+      <c r="A97" s="56"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="51"/>
       <c r="D97" s="41" t="s">
         <v>60</v>
       </c>
@@ -3996,9 +4008,9 @@
       <c r="I97" s="36"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="59"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="54"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="51"/>
       <c r="D98" s="41" t="s">
         <v>73</v>
       </c>
@@ -4008,9 +4020,9 @@
       <c r="I98" s="36"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="59"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="54"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="51"/>
       <c r="D99" s="41" t="s">
         <v>62</v>
       </c>
@@ -4020,9 +4032,9 @@
       <c r="I99" s="36"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="59"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="54"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="51"/>
       <c r="D100" s="41" t="s">
         <v>63</v>
       </c>
@@ -4031,11 +4043,11 @@
       <c r="G100" s="26"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="59"/>
-      <c r="B101" s="53" t="s">
+      <c r="A101" s="56"/>
+      <c r="B101" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C101" s="54" t="s">
+      <c r="C101" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="41" t="s">
@@ -4046,9 +4058,9 @@
       <c r="G101" s="26"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="59"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="54"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="51"/>
       <c r="D102" s="41" t="s">
         <v>60</v>
       </c>
@@ -4057,9 +4069,9 @@
       <c r="G102" s="26"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="59"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="54"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="51"/>
       <c r="D103" s="41" t="s">
         <v>73</v>
       </c>
@@ -4068,9 +4080,9 @@
       <c r="G103" s="26"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="59"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="51"/>
       <c r="D104" s="41" t="s">
         <v>62</v>
       </c>
@@ -4078,10 +4090,10 @@
       <c r="F104" s="42"/>
       <c r="G104" s="26"/>
     </row>
-    <row r="105" spans="1:9" ht="14.75" customHeight="1">
-      <c r="A105" s="59"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="54"/>
+    <row r="105" spans="1:9" ht="14.85" customHeight="1">
+      <c r="A105" s="56"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="51"/>
       <c r="D105" s="41" t="s">
         <v>63</v>
       </c>
@@ -4090,13 +4102,13 @@
       <c r="G105" s="26"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="58" t="s">
+      <c r="A106" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="54" t="s">
+      <c r="C106" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="41" t="s">
@@ -4107,9 +4119,9 @@
       <c r="G106" s="26"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="59"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="54"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="51"/>
       <c r="D107" s="41" t="s">
         <v>60</v>
       </c>
@@ -4118,9 +4130,9 @@
       <c r="G107" s="26"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="59"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="54"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="51"/>
       <c r="D108" s="41" t="s">
         <v>73</v>
       </c>
@@ -4129,9 +4141,9 @@
       <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="59"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="54"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="51"/>
       <c r="D109" s="41" t="s">
         <v>62</v>
       </c>
@@ -4140,9 +4152,9 @@
       <c r="G109" s="26"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="59"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="54"/>
+      <c r="A110" s="56"/>
+      <c r="B110" s="50"/>
+      <c r="C110" s="51"/>
       <c r="D110" s="41" t="s">
         <v>63</v>
       </c>
@@ -4151,11 +4163,11 @@
       <c r="G110" s="26"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="59"/>
-      <c r="B111" s="53" t="s">
+      <c r="A111" s="56"/>
+      <c r="B111" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C111" s="54" t="s">
+      <c r="C111" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D111" s="41" t="s">
@@ -4166,9 +4178,9 @@
       <c r="G111" s="26"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="59"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="54"/>
+      <c r="A112" s="56"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="41" t="s">
         <v>60</v>
       </c>
@@ -4177,9 +4189,9 @@
       <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="59"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="54"/>
+      <c r="A113" s="56"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="51"/>
       <c r="D113" s="41" t="s">
         <v>73</v>
       </c>
@@ -4188,9 +4200,9 @@
       <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="59"/>
-      <c r="B114" s="53"/>
-      <c r="C114" s="54"/>
+      <c r="A114" s="56"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="51"/>
       <c r="D114" s="41" t="s">
         <v>62</v>
       </c>
@@ -4199,9 +4211,9 @@
       <c r="G114" s="34"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="59"/>
-      <c r="B115" s="53"/>
-      <c r="C115" s="54"/>
+      <c r="A115" s="56"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="51"/>
       <c r="D115" s="41" t="s">
         <v>63</v>
       </c>
@@ -4210,13 +4222,13 @@
       <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="58" t="s">
+      <c r="A116" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C116" s="54" t="s">
+      <c r="C116" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D116" s="41" t="s">
@@ -4227,9 +4239,9 @@
       <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="59"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="54"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="51"/>
       <c r="D117" s="41" t="s">
         <v>60</v>
       </c>
@@ -4238,9 +4250,9 @@
       <c r="G117" s="26"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="59"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="54"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="51"/>
       <c r="D118" s="41" t="s">
         <v>73</v>
       </c>
@@ -4249,9 +4261,9 @@
       <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="59"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="54"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="51"/>
       <c r="D119" s="41" t="s">
         <v>62</v>
       </c>
@@ -4260,9 +4272,9 @@
       <c r="G119" s="26"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="59"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="54"/>
+      <c r="A120" s="56"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="51"/>
       <c r="D120" s="41" t="s">
         <v>63</v>
       </c>
@@ -4271,11 +4283,11 @@
       <c r="G120" s="26"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="59"/>
-      <c r="B121" s="53" t="s">
+      <c r="A121" s="56"/>
+      <c r="B121" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="54" t="s">
+      <c r="C121" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D121" s="41" t="s">
@@ -4286,9 +4298,9 @@
       <c r="G121" s="38"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="59"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="54"/>
+      <c r="A122" s="56"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="41" t="s">
         <v>60</v>
       </c>
@@ -4297,9 +4309,9 @@
       <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="59"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="54"/>
+      <c r="A123" s="56"/>
+      <c r="B123" s="50"/>
+      <c r="C123" s="51"/>
       <c r="D123" s="41" t="s">
         <v>73</v>
       </c>
@@ -4308,9 +4320,9 @@
       <c r="G123" s="38"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="59"/>
-      <c r="B124" s="53"/>
-      <c r="C124" s="54"/>
+      <c r="A124" s="56"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="51"/>
       <c r="D124" s="41" t="s">
         <v>62</v>
       </c>
@@ -4319,9 +4331,9 @@
       <c r="G124" s="38"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="59"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="54"/>
+      <c r="A125" s="56"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="51"/>
       <c r="D125" s="41" t="s">
         <v>63</v>
       </c>
@@ -4330,13 +4342,13 @@
       <c r="G125" s="38"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="58" t="s">
+      <c r="A126" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B126" s="53" t="s">
+      <c r="B126" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C126" s="54" t="s">
+      <c r="C126" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D126" s="41" t="s">
@@ -4347,9 +4359,9 @@
       <c r="G126" s="38"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="59"/>
-      <c r="B127" s="53"/>
-      <c r="C127" s="54"/>
+      <c r="A127" s="56"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="51"/>
       <c r="D127" s="41" t="s">
         <v>60</v>
       </c>
@@ -4358,9 +4370,9 @@
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="59"/>
-      <c r="B128" s="53"/>
-      <c r="C128" s="54"/>
+      <c r="A128" s="56"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="51"/>
       <c r="D128" s="41" t="s">
         <v>73</v>
       </c>
@@ -4369,9 +4381,9 @@
       <c r="G128" s="38"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="59"/>
-      <c r="B129" s="53"/>
-      <c r="C129" s="54"/>
+      <c r="A129" s="56"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="51"/>
       <c r="D129" s="41" t="s">
         <v>62</v>
       </c>
@@ -4380,9 +4392,9 @@
       <c r="G129" s="38"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="59"/>
-      <c r="B130" s="53"/>
-      <c r="C130" s="54"/>
+      <c r="A130" s="56"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="51"/>
       <c r="D130" s="41" t="s">
         <v>63</v>
       </c>
@@ -4391,11 +4403,11 @@
       <c r="G130" s="38"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="59"/>
-      <c r="B131" s="53" t="s">
+      <c r="A131" s="56"/>
+      <c r="B131" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C131" s="54" t="s">
+      <c r="C131" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D131" s="41" t="s">
@@ -4406,9 +4418,9 @@
       <c r="G131" s="38"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="59"/>
-      <c r="B132" s="53"/>
-      <c r="C132" s="54"/>
+      <c r="A132" s="56"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="51"/>
       <c r="D132" s="41" t="s">
         <v>60</v>
       </c>
@@ -4417,9 +4429,9 @@
       <c r="G132" s="38"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="59"/>
-      <c r="B133" s="53"/>
-      <c r="C133" s="54"/>
+      <c r="A133" s="56"/>
+      <c r="B133" s="50"/>
+      <c r="C133" s="51"/>
       <c r="D133" s="41" t="s">
         <v>73</v>
       </c>
@@ -4428,9 +4440,9 @@
       <c r="G133" s="38"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="59"/>
-      <c r="B134" s="53"/>
-      <c r="C134" s="54"/>
+      <c r="A134" s="56"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="51"/>
       <c r="D134" s="41" t="s">
         <v>62</v>
       </c>
@@ -4439,9 +4451,9 @@
       <c r="G134" s="38"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="59"/>
-      <c r="B135" s="53"/>
-      <c r="C135" s="54"/>
+      <c r="A135" s="56"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="51"/>
       <c r="D135" s="41" t="s">
         <v>63</v>
       </c>
@@ -4450,13 +4462,13 @@
       <c r="G135" s="38"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="60" t="s">
+      <c r="A136" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="53">
+      <c r="B136" s="50">
         <v>692</v>
       </c>
-      <c r="C136" s="54" t="s">
+      <c r="C136" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D136" s="41" t="s">
@@ -4467,9 +4479,9 @@
       <c r="G136" s="38"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="61"/>
-      <c r="B137" s="53"/>
-      <c r="C137" s="54"/>
+      <c r="A137" s="53"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="51"/>
       <c r="D137" s="41" t="s">
         <v>60</v>
       </c>
@@ -4478,9 +4490,9 @@
       <c r="G137" s="38"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="61"/>
-      <c r="B138" s="53"/>
-      <c r="C138" s="54"/>
+      <c r="A138" s="53"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="51"/>
       <c r="D138" s="41" t="s">
         <v>73</v>
       </c>
@@ -4489,9 +4501,9 @@
       <c r="G138" s="39"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="61"/>
-      <c r="B139" s="53"/>
-      <c r="C139" s="54"/>
+      <c r="A139" s="53"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="51"/>
       <c r="D139" s="41" t="s">
         <v>62</v>
       </c>
@@ -4500,9 +4512,9 @@
       <c r="G139" s="39"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="62"/>
-      <c r="B140" s="53"/>
-      <c r="C140" s="54"/>
+      <c r="A140" s="54"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="51"/>
       <c r="D140" s="41" t="s">
         <v>63</v>
       </c>
@@ -4513,50 +4525,15 @@
   </sheetData>
   <autoFilter ref="A1:H140" xr:uid="{62398E3D-9E42-4D35-B734-C747CB49DED4}"/>
   <mergeCells count="66">
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A126:A135"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="C131:C135"/>
-    <mergeCell ref="A116:A125"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="A86:A95"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="A66:A85"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="A51:A65"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
     <mergeCell ref="C41:C45"/>
     <mergeCell ref="B46:B50"/>
     <mergeCell ref="C46:C50"/>
@@ -4570,15 +4547,50 @@
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A51:A65"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="A66:A85"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="A86:A95"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="A116:A125"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="C131:C135"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/叶焕发的学习规划表.xlsx
+++ b/叶焕发的学习规划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSW00_910641\Documents\GitHub\NAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB2088C-D3D7-453D-88CF-EE70DAECFB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD65FD38-916B-47E7-9A36-A17B5F470EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E377C15B-1D26-438C-8534-8CC4902F7C32}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -2697,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62398E3D-9E42-4D35-B734-C747CB49DED4}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2824,7 +2824,9 @@
       <c r="D7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F7" s="42"/>
       <c r="G7" s="26"/>
     </row>
@@ -2868,7 +2870,9 @@
       <c r="D11" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F11" s="42"/>
       <c r="G11" s="26"/>
     </row>
@@ -2883,7 +2887,9 @@
       <c r="D12" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F12" s="42"/>
       <c r="G12" s="26"/>
     </row>
@@ -3311,7 +3317,9 @@
       <c r="E41" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="42"/>
+      <c r="F41" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7">
@@ -3324,7 +3332,9 @@
       <c r="E42" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
@@ -3334,7 +3344,9 @@
       <c r="D43" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="41"/>
+      <c r="E43" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F43" s="42"/>
       <c r="G43" s="26"/>
     </row>
@@ -3359,7 +3371,9 @@
       <c r="E45" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="42"/>
+      <c r="F45" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
@@ -3376,7 +3390,9 @@
       <c r="E46" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="42"/>
+      <c r="F46" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7">
@@ -3389,7 +3405,9 @@
       <c r="E47" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="42"/>
+      <c r="F47" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7">
@@ -3399,7 +3417,9 @@
       <c r="D48" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="41"/>
+      <c r="E48" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F48" s="42"/>
       <c r="G48" s="26"/>
     </row>
@@ -3424,7 +3444,9 @@
       <c r="E50" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="42"/>
+      <c r="F50" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:9">

--- a/叶焕发的学习规划表.xlsx
+++ b/叶焕发的学习规划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSW00_910641\Documents\GitHub\NAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD65FD38-916B-47E7-9A36-A17B5F470EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D521D9E-9537-4009-82B4-9A5EDEDE2DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E377C15B-1D26-438C-8534-8CC4902F7C32}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -1106,12 +1106,36 @@
     <xf numFmtId="55" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1119,30 +1143,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C89D368-FFD7-4EEA-87F9-969D80D697C4}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I11"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32:AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -2698,7 +2698,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
@@ -2737,13 +2737,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D2" s="41" t="s">
@@ -2759,9 +2759,9 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="57"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="41" t="s">
         <v>60</v>
       </c>
@@ -2775,9 +2775,9 @@
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="57"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="41" t="s">
         <v>61</v>
       </c>
@@ -2787,9 +2787,9 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="57"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="41" t="s">
         <v>62</v>
       </c>
@@ -2799,9 +2799,9 @@
       <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="57"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="41" t="s">
         <v>63</v>
       </c>
@@ -2814,11 +2814,11 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="57"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -2831,9 +2831,9 @@
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="57"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="41" t="s">
         <v>60</v>
       </c>
@@ -2842,9 +2842,9 @@
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="57"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="41" t="s">
         <v>61</v>
       </c>
@@ -2853,9 +2853,9 @@
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="57"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="41" t="s">
         <v>62</v>
       </c>
@@ -2864,9 +2864,9 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="57"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="41" t="s">
         <v>63</v>
       </c>
@@ -2877,11 +2877,11 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="57"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="55" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="41" t="s">
@@ -2890,13 +2890,15 @@
       <c r="E12" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="57"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="41" t="s">
         <v>66</v>
       </c>
@@ -2905,20 +2907,22 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="57"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F14" s="42"/>
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="57"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="41" t="s">
         <v>62</v>
       </c>
@@ -2927,9 +2931,9 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:9" ht="14.85" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="61"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="41" t="s">
         <v>63</v>
       </c>
@@ -2938,11 +2942,11 @@
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="57"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="54" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="41" t="s">
@@ -2957,9 +2961,9 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="57"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="41" t="s">
         <v>102</v>
       </c>
@@ -2972,9 +2976,9 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="57"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="41" t="s">
         <v>69</v>
       </c>
@@ -2987,9 +2991,9 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="58"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="41" t="s">
         <v>70</v>
       </c>
@@ -3002,13 +3006,13 @@
       <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D21" s="41" t="s">
@@ -3023,9 +3027,9 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="57"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="41" t="s">
         <v>60</v>
       </c>
@@ -3038,9 +3042,9 @@
       <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="57"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="41" t="s">
         <v>61</v>
       </c>
@@ -3053,9 +3057,9 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="57"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="41" t="s">
         <v>62</v>
       </c>
@@ -3064,9 +3068,9 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="57"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="41" t="s">
         <v>63</v>
       </c>
@@ -3079,11 +3083,11 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="57"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -3098,9 +3102,9 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="57"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="41" t="s">
         <v>60</v>
       </c>
@@ -3113,9 +3117,9 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="57"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="41" t="s">
         <v>73</v>
       </c>
@@ -3128,9 +3132,9 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="57"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="41" t="s">
         <v>62</v>
       </c>
@@ -3139,9 +3143,9 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="57"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="41" t="s">
         <v>63</v>
       </c>
@@ -3154,11 +3158,11 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="57"/>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="41" t="s">
@@ -3173,9 +3177,9 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="57"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="41" t="s">
         <v>60</v>
       </c>
@@ -3188,9 +3192,9 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="57"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="60"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="41" t="s">
         <v>73</v>
       </c>
@@ -3203,9 +3207,9 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="57"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="60"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="41" t="s">
         <v>62</v>
       </c>
@@ -3214,9 +3218,9 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="57"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="61"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="41" t="s">
         <v>75</v>
       </c>
@@ -3229,11 +3233,11 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="57"/>
-      <c r="B36" s="50" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="41" t="s">
@@ -3248,9 +3252,9 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="57"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="41" t="s">
         <v>60</v>
       </c>
@@ -3263,9 +3267,9 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="57"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="41" t="s">
         <v>73</v>
       </c>
@@ -3278,9 +3282,9 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="57"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="41" t="s">
         <v>62</v>
       </c>
@@ -3289,9 +3293,9 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="57"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="41" t="s">
         <v>63</v>
       </c>
@@ -3304,11 +3308,11 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="57"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="41" t="s">
@@ -3323,9 +3327,9 @@
       <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="57"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="41" t="s">
         <v>60</v>
       </c>
@@ -3338,22 +3342,24 @@
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="57"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="41" t="s">
         <v>73</v>
       </c>
       <c r="E43" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="57"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="41" t="s">
         <v>62</v>
       </c>
@@ -3362,9 +3368,9 @@
       <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="57"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="41" t="s">
         <v>63</v>
       </c>
@@ -3377,11 +3383,11 @@
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="57"/>
-      <c r="B46" s="50" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -3396,9 +3402,9 @@
       <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="57"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="41" t="s">
         <v>60</v>
       </c>
@@ -3411,22 +3417,24 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="57"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="41" t="s">
         <v>73</v>
       </c>
       <c r="E48" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="42"/>
+      <c r="F48" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="57"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="41" t="s">
         <v>62</v>
       </c>
@@ -3435,9 +3443,9 @@
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="58"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="41" t="s">
         <v>63</v>
       </c>
@@ -3450,13 +3458,13 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="41" t="s">
@@ -3468,9 +3476,9 @@
       <c r="I51" s="37"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="56"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="51"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="41" t="s">
         <v>60</v>
       </c>
@@ -3480,9 +3488,9 @@
       <c r="I52" s="37"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="56"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="51"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="41" t="s">
         <v>73</v>
       </c>
@@ -3492,9 +3500,9 @@
       <c r="I53" s="37"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="56"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="41" t="s">
         <v>62</v>
       </c>
@@ -3504,9 +3512,9 @@
       <c r="I54" s="37"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="56"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="51"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="41" t="s">
         <v>63</v>
       </c>
@@ -3515,11 +3523,11 @@
       <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="56"/>
-      <c r="B56" s="50" t="s">
+      <c r="A56" s="59"/>
+      <c r="B56" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D56" s="41" t="s">
@@ -3530,9 +3538,9 @@
       <c r="G56" s="34"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="56"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="51"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="41" t="s">
         <v>60</v>
       </c>
@@ -3541,9 +3549,9 @@
       <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="56"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="41" t="s">
         <v>73</v>
       </c>
@@ -3552,9 +3560,9 @@
       <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="56"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="41" t="s">
         <v>62</v>
       </c>
@@ -3563,9 +3571,9 @@
       <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="56"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="41" t="s">
         <v>63</v>
       </c>
@@ -3574,11 +3582,11 @@
       <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="56"/>
-      <c r="B61" s="50" t="s">
+      <c r="A61" s="59"/>
+      <c r="B61" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D61" s="41" t="s">
@@ -3589,9 +3597,9 @@
       <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="56"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="51"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="41" t="s">
         <v>60</v>
       </c>
@@ -3600,9 +3608,9 @@
       <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="56"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="51"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="41" t="s">
         <v>73</v>
       </c>
@@ -3611,9 +3619,9 @@
       <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="56"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="51"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="41" t="s">
         <v>62</v>
       </c>
@@ -3622,9 +3630,9 @@
       <c r="G64" s="26"/>
     </row>
     <row r="65" spans="1:9" ht="14.85" customHeight="1">
-      <c r="A65" s="56"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="51"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="41" t="s">
         <v>63</v>
       </c>
@@ -3633,13 +3641,13 @@
       <c r="G65" s="26"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D66" s="41" t="s">
@@ -3651,9 +3659,9 @@
       <c r="I66" s="37"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="56"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="41" t="s">
         <v>60</v>
       </c>
@@ -3663,9 +3671,9 @@
       <c r="I67" s="37"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="56"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="51"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="41" t="s">
         <v>73</v>
       </c>
@@ -3675,9 +3683,9 @@
       <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="56"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="51"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="41" t="s">
         <v>62</v>
       </c>
@@ -3687,9 +3695,9 @@
       <c r="I69" s="37"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="56"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="51"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="41" t="s">
         <v>63</v>
       </c>
@@ -3698,11 +3706,11 @@
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="56"/>
-      <c r="B71" s="50" t="s">
+      <c r="A71" s="59"/>
+      <c r="B71" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D71" s="41" t="s">
@@ -3713,9 +3721,9 @@
       <c r="G71" s="26"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="56"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="51"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="41" t="s">
         <v>60</v>
       </c>
@@ -3724,9 +3732,9 @@
       <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="56"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="41" t="s">
         <v>73</v>
       </c>
@@ -3735,9 +3743,9 @@
       <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="56"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="41" t="s">
         <v>62</v>
       </c>
@@ -3746,9 +3754,9 @@
       <c r="G74" s="26"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="56"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="51"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="41" t="s">
         <v>63</v>
       </c>
@@ -3757,11 +3765,11 @@
       <c r="G75" s="26"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="56"/>
-      <c r="B76" s="50" t="s">
+      <c r="A76" s="59"/>
+      <c r="B76" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D76" s="41" t="s">
@@ -3772,9 +3780,9 @@
       <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="56"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="41" t="s">
         <v>60</v>
       </c>
@@ -3783,9 +3791,9 @@
       <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="56"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="51"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="41" t="s">
         <v>73</v>
       </c>
@@ -3794,9 +3802,9 @@
       <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="56"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="51"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="41" t="s">
         <v>62</v>
       </c>
@@ -3805,9 +3813,9 @@
       <c r="G79" s="26"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="56"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="51"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="41" t="s">
         <v>63</v>
       </c>
@@ -3816,11 +3824,11 @@
       <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="56"/>
-      <c r="B81" s="50" t="s">
+      <c r="A81" s="59"/>
+      <c r="B81" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C81" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D81" s="41" t="s">
@@ -3831,9 +3839,9 @@
       <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="56"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="51"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="41" t="s">
         <v>60</v>
       </c>
@@ -3842,9 +3850,9 @@
       <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="56"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="51"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="41" t="s">
         <v>73</v>
       </c>
@@ -3853,9 +3861,9 @@
       <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="56"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="51"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="41" t="s">
         <v>62</v>
       </c>
@@ -3864,9 +3872,9 @@
       <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:9" ht="14.85" customHeight="1">
-      <c r="A85" s="56"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="51"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="41" t="s">
         <v>63</v>
       </c>
@@ -3875,13 +3883,13 @@
       <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D86" s="41" t="s">
@@ -3893,9 +3901,9 @@
       <c r="I86" s="37"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="56"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="51"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="54"/>
       <c r="D87" s="41" t="s">
         <v>60</v>
       </c>
@@ -3905,9 +3913,9 @@
       <c r="I87" s="37"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="56"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="51"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="54"/>
       <c r="D88" s="41" t="s">
         <v>73</v>
       </c>
@@ -3917,9 +3925,9 @@
       <c r="I88" s="37"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="56"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="51"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="54"/>
       <c r="D89" s="41" t="s">
         <v>62</v>
       </c>
@@ -3929,9 +3937,9 @@
       <c r="I89" s="37"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="56"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="51"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="54"/>
       <c r="D90" s="41" t="s">
         <v>63</v>
       </c>
@@ -3940,11 +3948,11 @@
       <c r="G90" s="26"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="56"/>
-      <c r="B91" s="50" t="s">
+      <c r="A91" s="59"/>
+      <c r="B91" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C91" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D91" s="41" t="s">
@@ -3955,9 +3963,9 @@
       <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="56"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="51"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="54"/>
       <c r="D92" s="41" t="s">
         <v>60</v>
       </c>
@@ -3966,9 +3974,9 @@
       <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="56"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="51"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="41" t="s">
         <v>73</v>
       </c>
@@ -3977,9 +3985,9 @@
       <c r="G93" s="26"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="56"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="51"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="41" t="s">
         <v>62</v>
       </c>
@@ -3988,9 +3996,9 @@
       <c r="G94" s="26"/>
     </row>
     <row r="95" spans="1:9" ht="14.85" customHeight="1">
-      <c r="A95" s="56"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="51"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
       <c r="D95" s="41" t="s">
         <v>63</v>
       </c>
@@ -4000,13 +4008,13 @@
       <c r="I95" s="35"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="55" t="s">
+      <c r="A96" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D96" s="41" t="s">
@@ -4018,9 +4026,9 @@
       <c r="I96" s="36"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="56"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="51"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
       <c r="D97" s="41" t="s">
         <v>60</v>
       </c>
@@ -4030,9 +4038,9 @@
       <c r="I97" s="36"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="56"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="51"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="54"/>
       <c r="D98" s="41" t="s">
         <v>73</v>
       </c>
@@ -4042,9 +4050,9 @@
       <c r="I98" s="36"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="56"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="51"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="41" t="s">
         <v>62</v>
       </c>
@@ -4054,9 +4062,9 @@
       <c r="I99" s="36"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="56"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="51"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="54"/>
       <c r="D100" s="41" t="s">
         <v>63</v>
       </c>
@@ -4065,11 +4073,11 @@
       <c r="G100" s="26"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="56"/>
-      <c r="B101" s="50" t="s">
+      <c r="A101" s="59"/>
+      <c r="B101" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C101" s="51" t="s">
+      <c r="C101" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="41" t="s">
@@ -4080,9 +4088,9 @@
       <c r="G101" s="26"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="56"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="51"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="54"/>
       <c r="D102" s="41" t="s">
         <v>60</v>
       </c>
@@ -4091,9 +4099,9 @@
       <c r="G102" s="26"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="56"/>
-      <c r="B103" s="50"/>
-      <c r="C103" s="51"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="54"/>
       <c r="D103" s="41" t="s">
         <v>73</v>
       </c>
@@ -4102,9 +4110,9 @@
       <c r="G103" s="26"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="56"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="51"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="54"/>
       <c r="D104" s="41" t="s">
         <v>62</v>
       </c>
@@ -4113,9 +4121,9 @@
       <c r="G104" s="26"/>
     </row>
     <row r="105" spans="1:9" ht="14.85" customHeight="1">
-      <c r="A105" s="56"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="51"/>
+      <c r="A105" s="59"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="54"/>
       <c r="D105" s="41" t="s">
         <v>63</v>
       </c>
@@ -4124,13 +4132,13 @@
       <c r="G105" s="26"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="55" t="s">
+      <c r="A106" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B106" s="50" t="s">
+      <c r="B106" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="41" t="s">
@@ -4141,9 +4149,9 @@
       <c r="G106" s="26"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="56"/>
-      <c r="B107" s="50"/>
-      <c r="C107" s="51"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="41" t="s">
         <v>60</v>
       </c>
@@ -4152,9 +4160,9 @@
       <c r="G107" s="26"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="56"/>
-      <c r="B108" s="50"/>
-      <c r="C108" s="51"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="54"/>
       <c r="D108" s="41" t="s">
         <v>73</v>
       </c>
@@ -4163,9 +4171,9 @@
       <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="56"/>
-      <c r="B109" s="50"/>
-      <c r="C109" s="51"/>
+      <c r="A109" s="59"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="54"/>
       <c r="D109" s="41" t="s">
         <v>62</v>
       </c>
@@ -4174,9 +4182,9 @@
       <c r="G109" s="26"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="56"/>
-      <c r="B110" s="50"/>
-      <c r="C110" s="51"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="54"/>
       <c r="D110" s="41" t="s">
         <v>63</v>
       </c>
@@ -4185,11 +4193,11 @@
       <c r="G110" s="26"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="56"/>
-      <c r="B111" s="50" t="s">
+      <c r="A111" s="59"/>
+      <c r="B111" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C111" s="51" t="s">
+      <c r="C111" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D111" s="41" t="s">
@@ -4200,9 +4208,9 @@
       <c r="G111" s="26"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="56"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="51"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="54"/>
       <c r="D112" s="41" t="s">
         <v>60</v>
       </c>
@@ -4211,9 +4219,9 @@
       <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="56"/>
-      <c r="B113" s="50"/>
-      <c r="C113" s="51"/>
+      <c r="A113" s="59"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="54"/>
       <c r="D113" s="41" t="s">
         <v>73</v>
       </c>
@@ -4222,9 +4230,9 @@
       <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="56"/>
-      <c r="B114" s="50"/>
-      <c r="C114" s="51"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="54"/>
       <c r="D114" s="41" t="s">
         <v>62</v>
       </c>
@@ -4233,9 +4241,9 @@
       <c r="G114" s="34"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="56"/>
-      <c r="B115" s="50"/>
-      <c r="C115" s="51"/>
+      <c r="A115" s="59"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="54"/>
       <c r="D115" s="41" t="s">
         <v>63</v>
       </c>
@@ -4244,13 +4252,13 @@
       <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="55" t="s">
+      <c r="A116" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="50" t="s">
+      <c r="B116" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C116" s="51" t="s">
+      <c r="C116" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D116" s="41" t="s">
@@ -4261,9 +4269,9 @@
       <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="56"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="51"/>
+      <c r="A117" s="59"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="54"/>
       <c r="D117" s="41" t="s">
         <v>60</v>
       </c>
@@ -4272,9 +4280,9 @@
       <c r="G117" s="26"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="56"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="51"/>
+      <c r="A118" s="59"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="54"/>
       <c r="D118" s="41" t="s">
         <v>73</v>
       </c>
@@ -4283,9 +4291,9 @@
       <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="56"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="51"/>
+      <c r="A119" s="59"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="54"/>
       <c r="D119" s="41" t="s">
         <v>62</v>
       </c>
@@ -4294,9 +4302,9 @@
       <c r="G119" s="26"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="56"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="51"/>
+      <c r="A120" s="59"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="54"/>
       <c r="D120" s="41" t="s">
         <v>63</v>
       </c>
@@ -4305,11 +4313,11 @@
       <c r="G120" s="26"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="56"/>
-      <c r="B121" s="50" t="s">
+      <c r="A121" s="59"/>
+      <c r="B121" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="51" t="s">
+      <c r="C121" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D121" s="41" t="s">
@@ -4320,9 +4328,9 @@
       <c r="G121" s="38"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="56"/>
-      <c r="B122" s="50"/>
-      <c r="C122" s="51"/>
+      <c r="A122" s="59"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="54"/>
       <c r="D122" s="41" t="s">
         <v>60</v>
       </c>
@@ -4331,9 +4339,9 @@
       <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="56"/>
-      <c r="B123" s="50"/>
-      <c r="C123" s="51"/>
+      <c r="A123" s="59"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="54"/>
       <c r="D123" s="41" t="s">
         <v>73</v>
       </c>
@@ -4342,9 +4350,9 @@
       <c r="G123" s="38"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="56"/>
-      <c r="B124" s="50"/>
-      <c r="C124" s="51"/>
+      <c r="A124" s="59"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="54"/>
       <c r="D124" s="41" t="s">
         <v>62</v>
       </c>
@@ -4353,9 +4361,9 @@
       <c r="G124" s="38"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="56"/>
-      <c r="B125" s="50"/>
-      <c r="C125" s="51"/>
+      <c r="A125" s="59"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="54"/>
       <c r="D125" s="41" t="s">
         <v>63</v>
       </c>
@@ -4364,13 +4372,13 @@
       <c r="G125" s="38"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="55" t="s">
+      <c r="A126" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B126" s="50" t="s">
+      <c r="B126" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C126" s="51" t="s">
+      <c r="C126" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D126" s="41" t="s">
@@ -4381,9 +4389,9 @@
       <c r="G126" s="38"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="56"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="51"/>
+      <c r="A127" s="59"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="54"/>
       <c r="D127" s="41" t="s">
         <v>60</v>
       </c>
@@ -4392,9 +4400,9 @@
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="56"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="51"/>
+      <c r="A128" s="59"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="54"/>
       <c r="D128" s="41" t="s">
         <v>73</v>
       </c>
@@ -4403,9 +4411,9 @@
       <c r="G128" s="38"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="56"/>
-      <c r="B129" s="50"/>
-      <c r="C129" s="51"/>
+      <c r="A129" s="59"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="54"/>
       <c r="D129" s="41" t="s">
         <v>62</v>
       </c>
@@ -4414,9 +4422,9 @@
       <c r="G129" s="38"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="56"/>
-      <c r="B130" s="50"/>
-      <c r="C130" s="51"/>
+      <c r="A130" s="59"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="54"/>
       <c r="D130" s="41" t="s">
         <v>63</v>
       </c>
@@ -4425,11 +4433,11 @@
       <c r="G130" s="38"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="56"/>
-      <c r="B131" s="50" t="s">
+      <c r="A131" s="59"/>
+      <c r="B131" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C131" s="51" t="s">
+      <c r="C131" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D131" s="41" t="s">
@@ -4440,9 +4448,9 @@
       <c r="G131" s="38"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="56"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="51"/>
+      <c r="A132" s="59"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="54"/>
       <c r="D132" s="41" t="s">
         <v>60</v>
       </c>
@@ -4451,9 +4459,9 @@
       <c r="G132" s="38"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="56"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="51"/>
+      <c r="A133" s="59"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="54"/>
       <c r="D133" s="41" t="s">
         <v>73</v>
       </c>
@@ -4462,9 +4470,9 @@
       <c r="G133" s="38"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="56"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="51"/>
+      <c r="A134" s="59"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="54"/>
       <c r="D134" s="41" t="s">
         <v>62</v>
       </c>
@@ -4473,9 +4481,9 @@
       <c r="G134" s="38"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="56"/>
-      <c r="B135" s="50"/>
-      <c r="C135" s="51"/>
+      <c r="A135" s="59"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="54"/>
       <c r="D135" s="41" t="s">
         <v>63</v>
       </c>
@@ -4484,13 +4492,13 @@
       <c r="G135" s="38"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="52" t="s">
+      <c r="A136" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="50">
+      <c r="B136" s="53">
         <v>692</v>
       </c>
-      <c r="C136" s="51" t="s">
+      <c r="C136" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D136" s="41" t="s">
@@ -4501,9 +4509,9 @@
       <c r="G136" s="38"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="53"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="51"/>
+      <c r="A137" s="61"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="54"/>
       <c r="D137" s="41" t="s">
         <v>60</v>
       </c>
@@ -4512,9 +4520,9 @@
       <c r="G137" s="38"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="53"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="51"/>
+      <c r="A138" s="61"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="54"/>
       <c r="D138" s="41" t="s">
         <v>73</v>
       </c>
@@ -4523,9 +4531,9 @@
       <c r="G138" s="39"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="53"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="51"/>
+      <c r="A139" s="61"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="54"/>
       <c r="D139" s="41" t="s">
         <v>62</v>
       </c>
@@ -4534,9 +4542,9 @@
       <c r="G139" s="39"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="54"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="51"/>
+      <c r="A140" s="62"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="54"/>
       <c r="D140" s="41" t="s">
         <v>63</v>
       </c>
@@ -4547,15 +4555,50 @@
   </sheetData>
   <autoFilter ref="A1:H140" xr:uid="{62398E3D-9E42-4D35-B734-C747CB49DED4}"/>
   <mergeCells count="66">
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="A116:A125"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="A86:A95"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="A66:A85"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="A51:A65"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
     <mergeCell ref="C41:C45"/>
     <mergeCell ref="B46:B50"/>
     <mergeCell ref="C46:C50"/>
@@ -4569,50 +4612,15 @@
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A51:A65"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="A66:A85"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="A86:A95"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="A116:A125"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A126:A135"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/叶焕发的学习规划表.xlsx
+++ b/叶焕发的学习规划表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSW00_910641\Documents\GitHub\NAU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11356\Desktop\NAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D521D9E-9537-4009-82B4-9A5EDEDE2DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141772A3-C77D-4F33-8CE5-C6485AF4D6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E377C15B-1D26-438C-8534-8CC4902F7C32}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{E377C15B-1D26-438C-8534-8CC4902F7C32}"/>
   </bookViews>
   <sheets>
     <sheet name="学习计划表 (信息安全)" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -1106,49 +1106,49 @@
     <xf numFmtId="55" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="11" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{8471EB3C-3E2B-4F8F-BAD8-343074CE5B20}"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1164,9 +1164,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1204,7 +1204,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1310,7 +1310,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1452,7 +1452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1466,11 +1466,11 @@
       <selection activeCell="AA32" sqref="AA32:AB32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="5" max="29" width="5.625" customWidth="1"/>
+    <col min="5" max="29" width="5.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1481,7 +1481,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="37.5">
+    <row r="2" spans="1:29" ht="36">
       <c r="B2" s="40" t="s">
         <v>100</v>
       </c>
@@ -2698,22 +2698,22 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="27"/>
-    <col min="3" max="3" width="12.125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.58203125" style="27"/>
+    <col min="3" max="3" width="12.08203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.58203125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="27" customWidth="1"/>
     <col min="7" max="7" width="61.5" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="8.625" style="27"/>
+    <col min="8" max="16384" width="8.58203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="28" customFormat="1" ht="18">
+    <row r="1" spans="1:9" s="28" customFormat="1">
       <c r="A1" s="24" t="s">
         <v>51</v>
       </c>
@@ -2737,13 +2737,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="51" t="s">
         <v>108</v>
       </c>
       <c r="D2" s="41" t="s">
@@ -2759,9 +2759,9 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="41" t="s">
         <v>60</v>
       </c>
@@ -2775,9 +2775,9 @@
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="41" t="s">
         <v>61</v>
       </c>
@@ -2787,9 +2787,9 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="41" t="s">
         <v>62</v>
       </c>
@@ -2799,9 +2799,9 @@
       <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="41" t="s">
         <v>63</v>
       </c>
@@ -2814,11 +2814,11 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="51"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -2827,13 +2827,15 @@
       <c r="E7" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="51"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="56"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="41" t="s">
         <v>60</v>
       </c>
@@ -2842,9 +2844,9 @@
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="51"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="56"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="41" t="s">
         <v>61</v>
       </c>
@@ -2853,9 +2855,9 @@
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="51"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="56"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="41" t="s">
         <v>62</v>
       </c>
@@ -2864,24 +2866,26 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="41" t="s">
         <v>63</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="51"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="59" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="41" t="s">
@@ -2896,9 +2900,9 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="51"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="41" t="s">
         <v>66</v>
       </c>
@@ -2907,22 +2911,24 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="51"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="56"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="41" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="41" t="s">
         <v>62</v>
       </c>
@@ -2930,10 +2936,10 @@
       <c r="F15" s="42"/>
       <c r="G15" s="26"/>
     </row>
-    <row r="16" spans="1:9" ht="14.85" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="57"/>
+    <row r="16" spans="1:9" ht="14.9" customHeight="1">
+      <c r="A16" s="57"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="41" t="s">
         <v>63</v>
       </c>
@@ -2942,11 +2948,11 @@
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="51"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="51" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="41" t="s">
@@ -2961,9 +2967,9 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="51"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="41" t="s">
         <v>102</v>
       </c>
@@ -2976,9 +2982,9 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="51"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="41" t="s">
         <v>69</v>
       </c>
@@ -2991,9 +2997,9 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="41" t="s">
         <v>70</v>
       </c>
@@ -3006,13 +3012,13 @@
       <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D21" s="41" t="s">
@@ -3027,9 +3033,9 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="51"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="41" t="s">
         <v>60</v>
       </c>
@@ -3042,9 +3048,9 @@
       <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="51"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="41" t="s">
         <v>61</v>
       </c>
@@ -3057,9 +3063,9 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="51"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="41" t="s">
         <v>62</v>
       </c>
@@ -3068,9 +3074,9 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="51"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="41" t="s">
         <v>63</v>
       </c>
@@ -3083,11 +3089,11 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="51"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -3102,9 +3108,9 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="51"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="41" t="s">
         <v>60</v>
       </c>
@@ -3117,9 +3123,9 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="51"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="41" t="s">
         <v>73</v>
       </c>
@@ -3132,9 +3138,9 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="51"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="41" t="s">
         <v>62</v>
       </c>
@@ -3143,9 +3149,9 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="51"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="41" t="s">
         <v>63</v>
       </c>
@@ -3158,11 +3164,11 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="51"/>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="59" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="41" t="s">
@@ -3177,9 +3183,9 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="51"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="56"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="41" t="s">
         <v>60</v>
       </c>
@@ -3192,9 +3198,9 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="51"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="56"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="41" t="s">
         <v>73</v>
       </c>
@@ -3207,9 +3213,9 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="51"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="56"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="41" t="s">
         <v>62</v>
       </c>
@@ -3218,9 +3224,9 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="51"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="57"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="41" t="s">
         <v>75</v>
       </c>
@@ -3233,11 +3239,11 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="51"/>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="41" t="s">
@@ -3252,9 +3258,9 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="51"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="41" t="s">
         <v>60</v>
       </c>
@@ -3267,9 +3273,9 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="51"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="41" t="s">
         <v>73</v>
       </c>
@@ -3282,9 +3288,9 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="51"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="41" t="s">
         <v>62</v>
       </c>
@@ -3293,9 +3299,9 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="51"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="41" t="s">
         <v>63</v>
       </c>
@@ -3308,11 +3314,11 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="51"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="41" t="s">
@@ -3327,9 +3333,9 @@
       <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="51"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="41" t="s">
         <v>60</v>
       </c>
@@ -3342,9 +3348,9 @@
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="51"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="54"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="41" t="s">
         <v>73</v>
       </c>
@@ -3357,9 +3363,9 @@
       <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="51"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="41" t="s">
         <v>62</v>
       </c>
@@ -3368,9 +3374,9 @@
       <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="51"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="54"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="41" t="s">
         <v>63</v>
       </c>
@@ -3383,11 +3389,11 @@
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="51"/>
-      <c r="B46" s="53" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -3402,9 +3408,9 @@
       <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="51"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="54"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="41" t="s">
         <v>60</v>
       </c>
@@ -3417,9 +3423,9 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="51"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="54"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="41" t="s">
         <v>73</v>
       </c>
@@ -3432,9 +3438,9 @@
       <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="51"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="41" t="s">
         <v>62</v>
       </c>
@@ -3443,9 +3449,9 @@
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="52"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="54"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="41" t="s">
         <v>63</v>
       </c>
@@ -3458,13 +3464,13 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="41" t="s">
@@ -3476,9 +3482,9 @@
       <c r="I51" s="37"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="59"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="41" t="s">
         <v>60</v>
       </c>
@@ -3488,9 +3494,9 @@
       <c r="I52" s="37"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="59"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="54"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="41" t="s">
         <v>73</v>
       </c>
@@ -3500,9 +3506,9 @@
       <c r="I53" s="37"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="59"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="41" t="s">
         <v>62</v>
       </c>
@@ -3512,9 +3518,9 @@
       <c r="I54" s="37"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="59"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="54"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="41" t="s">
         <v>63</v>
       </c>
@@ -3523,11 +3529,11 @@
       <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="59"/>
-      <c r="B56" s="53" t="s">
+      <c r="A56" s="56"/>
+      <c r="B56" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D56" s="41" t="s">
@@ -3538,9 +3544,9 @@
       <c r="G56" s="34"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="59"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="54"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="41" t="s">
         <v>60</v>
       </c>
@@ -3549,9 +3555,9 @@
       <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="59"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="54"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="41" t="s">
         <v>73</v>
       </c>
@@ -3560,9 +3566,9 @@
       <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="59"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="54"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="41" t="s">
         <v>62</v>
       </c>
@@ -3571,9 +3577,9 @@
       <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="59"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="54"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="41" t="s">
         <v>63</v>
       </c>
@@ -3582,11 +3588,11 @@
       <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="59"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="56"/>
+      <c r="B61" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D61" s="41" t="s">
@@ -3597,9 +3603,9 @@
       <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="59"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="54"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="41" t="s">
         <v>60</v>
       </c>
@@ -3608,9 +3614,9 @@
       <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="59"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="54"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="41" t="s">
         <v>73</v>
       </c>
@@ -3619,9 +3625,9 @@
       <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="59"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="54"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="41" t="s">
         <v>62</v>
       </c>
@@ -3629,10 +3635,10 @@
       <c r="F64" s="42"/>
       <c r="G64" s="26"/>
     </row>
-    <row r="65" spans="1:9" ht="14.85" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="54"/>
+    <row r="65" spans="1:9" ht="14.9" customHeight="1">
+      <c r="A65" s="56"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="41" t="s">
         <v>63</v>
       </c>
@@ -3641,13 +3647,13 @@
       <c r="G65" s="26"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D66" s="41" t="s">
@@ -3659,9 +3665,9 @@
       <c r="I66" s="37"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="59"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="54"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="41" t="s">
         <v>60</v>
       </c>
@@ -3671,9 +3677,9 @@
       <c r="I67" s="37"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="59"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="54"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="41" t="s">
         <v>73</v>
       </c>
@@ -3683,9 +3689,9 @@
       <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="59"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="54"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="41" t="s">
         <v>62</v>
       </c>
@@ -3695,9 +3701,9 @@
       <c r="I69" s="37"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="59"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="54"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="41" t="s">
         <v>63</v>
       </c>
@@ -3706,11 +3712,11 @@
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="59"/>
-      <c r="B71" s="53" t="s">
+      <c r="A71" s="56"/>
+      <c r="B71" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D71" s="41" t="s">
@@ -3721,9 +3727,9 @@
       <c r="G71" s="26"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="59"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="54"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="41" t="s">
         <v>60</v>
       </c>
@@ -3732,9 +3738,9 @@
       <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="59"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="54"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="41" t="s">
         <v>73</v>
       </c>
@@ -3743,9 +3749,9 @@
       <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="59"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="54"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="41" t="s">
         <v>62</v>
       </c>
@@ -3754,9 +3760,9 @@
       <c r="G74" s="26"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="59"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="54"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="41" t="s">
         <v>63</v>
       </c>
@@ -3765,11 +3771,11 @@
       <c r="G75" s="26"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="59"/>
-      <c r="B76" s="53" t="s">
+      <c r="A76" s="56"/>
+      <c r="B76" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="C76" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D76" s="41" t="s">
@@ -3780,9 +3786,9 @@
       <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="59"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="41" t="s">
         <v>60</v>
       </c>
@@ -3791,9 +3797,9 @@
       <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="59"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="41" t="s">
         <v>73</v>
       </c>
@@ -3802,9 +3808,9 @@
       <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="59"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="54"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="41" t="s">
         <v>62</v>
       </c>
@@ -3813,9 +3819,9 @@
       <c r="G79" s="26"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="59"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="41" t="s">
         <v>63</v>
       </c>
@@ -3824,11 +3830,11 @@
       <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="59"/>
-      <c r="B81" s="53" t="s">
+      <c r="A81" s="56"/>
+      <c r="B81" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D81" s="41" t="s">
@@ -3839,9 +3845,9 @@
       <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="59"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="54"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="51"/>
       <c r="D82" s="41" t="s">
         <v>60</v>
       </c>
@@ -3850,9 +3856,9 @@
       <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="59"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="41" t="s">
         <v>73</v>
       </c>
@@ -3861,9 +3867,9 @@
       <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="59"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="54"/>
+      <c r="A84" s="56"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="41" t="s">
         <v>62</v>
       </c>
@@ -3871,10 +3877,10 @@
       <c r="F84" s="42"/>
       <c r="G84" s="26"/>
     </row>
-    <row r="85" spans="1:9" ht="14.85" customHeight="1">
-      <c r="A85" s="59"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="54"/>
+    <row r="85" spans="1:9" ht="14.9" customHeight="1">
+      <c r="A85" s="56"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="41" t="s">
         <v>63</v>
       </c>
@@ -3883,13 +3889,13 @@
       <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="58" t="s">
+      <c r="A86" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="53" t="s">
+      <c r="B86" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D86" s="41" t="s">
@@ -3901,9 +3907,9 @@
       <c r="I86" s="37"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="59"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="54"/>
+      <c r="A87" s="56"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="51"/>
       <c r="D87" s="41" t="s">
         <v>60</v>
       </c>
@@ -3913,9 +3919,9 @@
       <c r="I87" s="37"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="59"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="54"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="51"/>
       <c r="D88" s="41" t="s">
         <v>73</v>
       </c>
@@ -3925,9 +3931,9 @@
       <c r="I88" s="37"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="59"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="54"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="51"/>
       <c r="D89" s="41" t="s">
         <v>62</v>
       </c>
@@ -3937,9 +3943,9 @@
       <c r="I89" s="37"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="59"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="54"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="51"/>
       <c r="D90" s="41" t="s">
         <v>63</v>
       </c>
@@ -3948,11 +3954,11 @@
       <c r="G90" s="26"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="59"/>
-      <c r="B91" s="53" t="s">
+      <c r="A91" s="56"/>
+      <c r="B91" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="54" t="s">
+      <c r="C91" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D91" s="41" t="s">
@@ -3963,9 +3969,9 @@
       <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="59"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="54"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="51"/>
       <c r="D92" s="41" t="s">
         <v>60</v>
       </c>
@@ -3974,9 +3980,9 @@
       <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="59"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="54"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="51"/>
       <c r="D93" s="41" t="s">
         <v>73</v>
       </c>
@@ -3985,9 +3991,9 @@
       <c r="G93" s="26"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="59"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="54"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="51"/>
       <c r="D94" s="41" t="s">
         <v>62</v>
       </c>
@@ -3995,10 +4001,10 @@
       <c r="F94" s="42"/>
       <c r="G94" s="26"/>
     </row>
-    <row r="95" spans="1:9" ht="14.85" customHeight="1">
-      <c r="A95" s="59"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="54"/>
+    <row r="95" spans="1:9" ht="14.9" customHeight="1">
+      <c r="A95" s="56"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="51"/>
       <c r="D95" s="41" t="s">
         <v>63</v>
       </c>
@@ -4008,13 +4014,13 @@
       <c r="I95" s="35"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="58" t="s">
+      <c r="A96" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="54" t="s">
+      <c r="C96" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D96" s="41" t="s">
@@ -4026,9 +4032,9 @@
       <c r="I96" s="36"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="59"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="54"/>
+      <c r="A97" s="56"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="51"/>
       <c r="D97" s="41" t="s">
         <v>60</v>
       </c>
@@ -4038,9 +4044,9 @@
       <c r="I97" s="36"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="59"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="54"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="51"/>
       <c r="D98" s="41" t="s">
         <v>73</v>
       </c>
@@ -4050,9 +4056,9 @@
       <c r="I98" s="36"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="59"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="54"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="51"/>
       <c r="D99" s="41" t="s">
         <v>62</v>
       </c>
@@ -4062,9 +4068,9 @@
       <c r="I99" s="36"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="59"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="54"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="51"/>
       <c r="D100" s="41" t="s">
         <v>63</v>
       </c>
@@ -4073,11 +4079,11 @@
       <c r="G100" s="26"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="59"/>
-      <c r="B101" s="53" t="s">
+      <c r="A101" s="56"/>
+      <c r="B101" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C101" s="54" t="s">
+      <c r="C101" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="41" t="s">
@@ -4088,9 +4094,9 @@
       <c r="G101" s="26"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="59"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="54"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="51"/>
       <c r="D102" s="41" t="s">
         <v>60</v>
       </c>
@@ -4099,9 +4105,9 @@
       <c r="G102" s="26"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="59"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="54"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="51"/>
       <c r="D103" s="41" t="s">
         <v>73</v>
       </c>
@@ -4110,9 +4116,9 @@
       <c r="G103" s="26"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="59"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="51"/>
       <c r="D104" s="41" t="s">
         <v>62</v>
       </c>
@@ -4120,10 +4126,10 @@
       <c r="F104" s="42"/>
       <c r="G104" s="26"/>
     </row>
-    <row r="105" spans="1:9" ht="14.85" customHeight="1">
-      <c r="A105" s="59"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="54"/>
+    <row r="105" spans="1:9" ht="14.9" customHeight="1">
+      <c r="A105" s="56"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="51"/>
       <c r="D105" s="41" t="s">
         <v>63</v>
       </c>
@@ -4132,13 +4138,13 @@
       <c r="G105" s="26"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="58" t="s">
+      <c r="A106" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="54" t="s">
+      <c r="C106" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="41" t="s">
@@ -4149,9 +4155,9 @@
       <c r="G106" s="26"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="59"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="54"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="51"/>
       <c r="D107" s="41" t="s">
         <v>60</v>
       </c>
@@ -4160,9 +4166,9 @@
       <c r="G107" s="26"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="59"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="54"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="51"/>
       <c r="D108" s="41" t="s">
         <v>73</v>
       </c>
@@ -4171,9 +4177,9 @@
       <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="59"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="54"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="51"/>
       <c r="D109" s="41" t="s">
         <v>62</v>
       </c>
@@ -4182,9 +4188,9 @@
       <c r="G109" s="26"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="59"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="54"/>
+      <c r="A110" s="56"/>
+      <c r="B110" s="50"/>
+      <c r="C110" s="51"/>
       <c r="D110" s="41" t="s">
         <v>63</v>
       </c>
@@ -4193,11 +4199,11 @@
       <c r="G110" s="26"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="59"/>
-      <c r="B111" s="53" t="s">
+      <c r="A111" s="56"/>
+      <c r="B111" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C111" s="54" t="s">
+      <c r="C111" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D111" s="41" t="s">
@@ -4208,9 +4214,9 @@
       <c r="G111" s="26"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="59"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="54"/>
+      <c r="A112" s="56"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="41" t="s">
         <v>60</v>
       </c>
@@ -4219,9 +4225,9 @@
       <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="59"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="54"/>
+      <c r="A113" s="56"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="51"/>
       <c r="D113" s="41" t="s">
         <v>73</v>
       </c>
@@ -4230,9 +4236,9 @@
       <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="59"/>
-      <c r="B114" s="53"/>
-      <c r="C114" s="54"/>
+      <c r="A114" s="56"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="51"/>
       <c r="D114" s="41" t="s">
         <v>62</v>
       </c>
@@ -4241,9 +4247,9 @@
       <c r="G114" s="34"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="59"/>
-      <c r="B115" s="53"/>
-      <c r="C115" s="54"/>
+      <c r="A115" s="56"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="51"/>
       <c r="D115" s="41" t="s">
         <v>63</v>
       </c>
@@ -4252,13 +4258,13 @@
       <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="58" t="s">
+      <c r="A116" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C116" s="54" t="s">
+      <c r="C116" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D116" s="41" t="s">
@@ -4269,9 +4275,9 @@
       <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="59"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="54"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="51"/>
       <c r="D117" s="41" t="s">
         <v>60</v>
       </c>
@@ -4280,9 +4286,9 @@
       <c r="G117" s="26"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="59"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="54"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="51"/>
       <c r="D118" s="41" t="s">
         <v>73</v>
       </c>
@@ -4291,9 +4297,9 @@
       <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="59"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="54"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="51"/>
       <c r="D119" s="41" t="s">
         <v>62</v>
       </c>
@@ -4302,9 +4308,9 @@
       <c r="G119" s="26"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="59"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="54"/>
+      <c r="A120" s="56"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="51"/>
       <c r="D120" s="41" t="s">
         <v>63</v>
       </c>
@@ -4313,11 +4319,11 @@
       <c r="G120" s="26"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="59"/>
-      <c r="B121" s="53" t="s">
+      <c r="A121" s="56"/>
+      <c r="B121" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="54" t="s">
+      <c r="C121" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D121" s="41" t="s">
@@ -4328,9 +4334,9 @@
       <c r="G121" s="38"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="59"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="54"/>
+      <c r="A122" s="56"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="41" t="s">
         <v>60</v>
       </c>
@@ -4339,9 +4345,9 @@
       <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="59"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="54"/>
+      <c r="A123" s="56"/>
+      <c r="B123" s="50"/>
+      <c r="C123" s="51"/>
       <c r="D123" s="41" t="s">
         <v>73</v>
       </c>
@@ -4350,9 +4356,9 @@
       <c r="G123" s="38"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="59"/>
-      <c r="B124" s="53"/>
-      <c r="C124" s="54"/>
+      <c r="A124" s="56"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="51"/>
       <c r="D124" s="41" t="s">
         <v>62</v>
       </c>
@@ -4361,9 +4367,9 @@
       <c r="G124" s="38"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="59"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="54"/>
+      <c r="A125" s="56"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="51"/>
       <c r="D125" s="41" t="s">
         <v>63</v>
       </c>
@@ -4372,13 +4378,13 @@
       <c r="G125" s="38"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="58" t="s">
+      <c r="A126" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B126" s="53" t="s">
+      <c r="B126" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C126" s="54" t="s">
+      <c r="C126" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D126" s="41" t="s">
@@ -4389,9 +4395,9 @@
       <c r="G126" s="38"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="59"/>
-      <c r="B127" s="53"/>
-      <c r="C127" s="54"/>
+      <c r="A127" s="56"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="51"/>
       <c r="D127" s="41" t="s">
         <v>60</v>
       </c>
@@ -4400,9 +4406,9 @@
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="59"/>
-      <c r="B128" s="53"/>
-      <c r="C128" s="54"/>
+      <c r="A128" s="56"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="51"/>
       <c r="D128" s="41" t="s">
         <v>73</v>
       </c>
@@ -4411,9 +4417,9 @@
       <c r="G128" s="38"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="59"/>
-      <c r="B129" s="53"/>
-      <c r="C129" s="54"/>
+      <c r="A129" s="56"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="51"/>
       <c r="D129" s="41" t="s">
         <v>62</v>
       </c>
@@ -4422,9 +4428,9 @@
       <c r="G129" s="38"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="59"/>
-      <c r="B130" s="53"/>
-      <c r="C130" s="54"/>
+      <c r="A130" s="56"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="51"/>
       <c r="D130" s="41" t="s">
         <v>63</v>
       </c>
@@ -4433,11 +4439,11 @@
       <c r="G130" s="38"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="59"/>
-      <c r="B131" s="53" t="s">
+      <c r="A131" s="56"/>
+      <c r="B131" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C131" s="54" t="s">
+      <c r="C131" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D131" s="41" t="s">
@@ -4448,9 +4454,9 @@
       <c r="G131" s="38"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="59"/>
-      <c r="B132" s="53"/>
-      <c r="C132" s="54"/>
+      <c r="A132" s="56"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="51"/>
       <c r="D132" s="41" t="s">
         <v>60</v>
       </c>
@@ -4459,9 +4465,9 @@
       <c r="G132" s="38"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="59"/>
-      <c r="B133" s="53"/>
-      <c r="C133" s="54"/>
+      <c r="A133" s="56"/>
+      <c r="B133" s="50"/>
+      <c r="C133" s="51"/>
       <c r="D133" s="41" t="s">
         <v>73</v>
       </c>
@@ -4470,9 +4476,9 @@
       <c r="G133" s="38"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="59"/>
-      <c r="B134" s="53"/>
-      <c r="C134" s="54"/>
+      <c r="A134" s="56"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="51"/>
       <c r="D134" s="41" t="s">
         <v>62</v>
       </c>
@@ -4481,9 +4487,9 @@
       <c r="G134" s="38"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="59"/>
-      <c r="B135" s="53"/>
-      <c r="C135" s="54"/>
+      <c r="A135" s="56"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="51"/>
       <c r="D135" s="41" t="s">
         <v>63</v>
       </c>
@@ -4492,13 +4498,13 @@
       <c r="G135" s="38"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="60" t="s">
+      <c r="A136" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="53">
+      <c r="B136" s="50">
         <v>692</v>
       </c>
-      <c r="C136" s="54" t="s">
+      <c r="C136" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D136" s="41" t="s">
@@ -4509,9 +4515,9 @@
       <c r="G136" s="38"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="61"/>
-      <c r="B137" s="53"/>
-      <c r="C137" s="54"/>
+      <c r="A137" s="53"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="51"/>
       <c r="D137" s="41" t="s">
         <v>60</v>
       </c>
@@ -4520,9 +4526,9 @@
       <c r="G137" s="38"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="61"/>
-      <c r="B138" s="53"/>
-      <c r="C138" s="54"/>
+      <c r="A138" s="53"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="51"/>
       <c r="D138" s="41" t="s">
         <v>73</v>
       </c>
@@ -4531,9 +4537,9 @@
       <c r="G138" s="39"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="61"/>
-      <c r="B139" s="53"/>
-      <c r="C139" s="54"/>
+      <c r="A139" s="53"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="51"/>
       <c r="D139" s="41" t="s">
         <v>62</v>
       </c>
@@ -4542,9 +4548,9 @@
       <c r="G139" s="39"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="62"/>
-      <c r="B140" s="53"/>
-      <c r="C140" s="54"/>
+      <c r="A140" s="54"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="51"/>
       <c r="D140" s="41" t="s">
         <v>63</v>
       </c>
@@ -4555,50 +4561,15 @@
   </sheetData>
   <autoFilter ref="A1:H140" xr:uid="{62398E3D-9E42-4D35-B734-C747CB49DED4}"/>
   <mergeCells count="66">
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A126:A135"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="C131:C135"/>
-    <mergeCell ref="A116:A125"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="A86:A95"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="A66:A85"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="A51:A65"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
     <mergeCell ref="C41:C45"/>
     <mergeCell ref="B46:B50"/>
     <mergeCell ref="C46:C50"/>
@@ -4612,15 +4583,50 @@
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A51:A65"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="A66:A85"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="A86:A95"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="A116:A125"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="C131:C135"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/叶焕发的学习规划表.xlsx
+++ b/叶焕发的学习规划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11356\Desktop\NAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141772A3-C77D-4F33-8CE5-C6485AF4D6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5CE669-FCF9-488C-A556-81BEFCD70417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{E377C15B-1D26-438C-8534-8CC4902F7C32}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -1106,12 +1106,36 @@
     <xf numFmtId="55" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1119,30 +1143,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2698,7 +2698,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
@@ -2737,13 +2737,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D2" s="41" t="s">
@@ -2759,9 +2759,9 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="57"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="41" t="s">
         <v>60</v>
       </c>
@@ -2775,21 +2775,23 @@
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="57"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F4" s="42"/>
       <c r="G4" s="26"/>
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="57"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="41" t="s">
         <v>62</v>
       </c>
@@ -2799,9 +2801,9 @@
       <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="57"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="41" t="s">
         <v>63</v>
       </c>
@@ -2814,11 +2816,11 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="57"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -2833,31 +2835,35 @@
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="57"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F8" s="42"/>
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="57"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F9" s="42"/>
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="57"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="41" t="s">
         <v>62</v>
       </c>
@@ -2866,9 +2872,9 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="57"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="41" t="s">
         <v>63</v>
       </c>
@@ -2881,11 +2887,11 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="57"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="55" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="41" t="s">
@@ -2900,20 +2906,22 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="57"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F13" s="42"/>
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="57"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="41" t="s">
         <v>61</v>
       </c>
@@ -2926,9 +2934,9 @@
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="57"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="41" t="s">
         <v>62</v>
       </c>
@@ -2937,9 +2945,9 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="61"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="41" t="s">
         <v>63</v>
       </c>
@@ -2948,11 +2956,11 @@
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="57"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="54" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="41" t="s">
@@ -2967,9 +2975,9 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="57"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="41" t="s">
         <v>102</v>
       </c>
@@ -2982,9 +2990,9 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="57"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="41" t="s">
         <v>69</v>
       </c>
@@ -2997,9 +3005,9 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="58"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="41" t="s">
         <v>70</v>
       </c>
@@ -3012,13 +3020,13 @@
       <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D21" s="41" t="s">
@@ -3033,9 +3041,9 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="57"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="41" t="s">
         <v>60</v>
       </c>
@@ -3048,9 +3056,9 @@
       <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="57"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="41" t="s">
         <v>61</v>
       </c>
@@ -3063,9 +3071,9 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="57"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="41" t="s">
         <v>62</v>
       </c>
@@ -3074,9 +3082,9 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="57"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="41" t="s">
         <v>63</v>
       </c>
@@ -3089,11 +3097,11 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="57"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -3108,9 +3116,9 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="57"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="41" t="s">
         <v>60</v>
       </c>
@@ -3123,9 +3131,9 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="57"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="41" t="s">
         <v>73</v>
       </c>
@@ -3138,9 +3146,9 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="57"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="41" t="s">
         <v>62</v>
       </c>
@@ -3149,9 +3157,9 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="57"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="41" t="s">
         <v>63</v>
       </c>
@@ -3164,11 +3172,11 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="57"/>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="41" t="s">
@@ -3183,9 +3191,9 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="57"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="41" t="s">
         <v>60</v>
       </c>
@@ -3198,9 +3206,9 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="57"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="60"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="41" t="s">
         <v>73</v>
       </c>
@@ -3213,9 +3221,9 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="57"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="60"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="41" t="s">
         <v>62</v>
       </c>
@@ -3224,9 +3232,9 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="57"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="61"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="41" t="s">
         <v>75</v>
       </c>
@@ -3239,11 +3247,11 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="57"/>
-      <c r="B36" s="50" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="41" t="s">
@@ -3258,9 +3266,9 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="57"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="41" t="s">
         <v>60</v>
       </c>
@@ -3273,9 +3281,9 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="57"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="41" t="s">
         <v>73</v>
       </c>
@@ -3288,9 +3296,9 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="57"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="41" t="s">
         <v>62</v>
       </c>
@@ -3299,9 +3307,9 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="57"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="41" t="s">
         <v>63</v>
       </c>
@@ -3314,11 +3322,11 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="57"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="41" t="s">
@@ -3333,9 +3341,9 @@
       <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="57"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="41" t="s">
         <v>60</v>
       </c>
@@ -3348,9 +3356,9 @@
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="57"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="41" t="s">
         <v>73</v>
       </c>
@@ -3363,9 +3371,9 @@
       <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="57"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="41" t="s">
         <v>62</v>
       </c>
@@ -3374,9 +3382,9 @@
       <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="57"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="41" t="s">
         <v>63</v>
       </c>
@@ -3389,11 +3397,11 @@
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="57"/>
-      <c r="B46" s="50" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -3408,9 +3416,9 @@
       <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="57"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="41" t="s">
         <v>60</v>
       </c>
@@ -3423,9 +3431,9 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="57"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="41" t="s">
         <v>73</v>
       </c>
@@ -3438,9 +3446,9 @@
       <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="57"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="41" t="s">
         <v>62</v>
       </c>
@@ -3449,9 +3457,9 @@
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="58"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="41" t="s">
         <v>63</v>
       </c>
@@ -3464,13 +3472,13 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="41" t="s">
@@ -3482,9 +3490,9 @@
       <c r="I51" s="37"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="56"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="51"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="41" t="s">
         <v>60</v>
       </c>
@@ -3494,9 +3502,9 @@
       <c r="I52" s="37"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="56"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="51"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="41" t="s">
         <v>73</v>
       </c>
@@ -3506,9 +3514,9 @@
       <c r="I53" s="37"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="56"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="41" t="s">
         <v>62</v>
       </c>
@@ -3518,9 +3526,9 @@
       <c r="I54" s="37"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="56"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="51"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="41" t="s">
         <v>63</v>
       </c>
@@ -3529,11 +3537,11 @@
       <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="56"/>
-      <c r="B56" s="50" t="s">
+      <c r="A56" s="59"/>
+      <c r="B56" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D56" s="41" t="s">
@@ -3544,9 +3552,9 @@
       <c r="G56" s="34"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="56"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="51"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="41" t="s">
         <v>60</v>
       </c>
@@ -3555,9 +3563,9 @@
       <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="56"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="41" t="s">
         <v>73</v>
       </c>
@@ -3566,9 +3574,9 @@
       <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="56"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="41" t="s">
         <v>62</v>
       </c>
@@ -3577,9 +3585,9 @@
       <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="56"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="41" t="s">
         <v>63</v>
       </c>
@@ -3588,11 +3596,11 @@
       <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="56"/>
-      <c r="B61" s="50" t="s">
+      <c r="A61" s="59"/>
+      <c r="B61" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D61" s="41" t="s">
@@ -3603,9 +3611,9 @@
       <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="56"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="51"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="41" t="s">
         <v>60</v>
       </c>
@@ -3614,9 +3622,9 @@
       <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="56"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="51"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="41" t="s">
         <v>73</v>
       </c>
@@ -3625,9 +3633,9 @@
       <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="56"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="51"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="41" t="s">
         <v>62</v>
       </c>
@@ -3636,9 +3644,9 @@
       <c r="G64" s="26"/>
     </row>
     <row r="65" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A65" s="56"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="51"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="41" t="s">
         <v>63</v>
       </c>
@@ -3647,13 +3655,13 @@
       <c r="G65" s="26"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D66" s="41" t="s">
@@ -3665,9 +3673,9 @@
       <c r="I66" s="37"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="56"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="41" t="s">
         <v>60</v>
       </c>
@@ -3677,9 +3685,9 @@
       <c r="I67" s="37"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="56"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="51"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="41" t="s">
         <v>73</v>
       </c>
@@ -3689,9 +3697,9 @@
       <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="56"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="51"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="41" t="s">
         <v>62</v>
       </c>
@@ -3701,9 +3709,9 @@
       <c r="I69" s="37"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="56"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="51"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="41" t="s">
         <v>63</v>
       </c>
@@ -3712,11 +3720,11 @@
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="56"/>
-      <c r="B71" s="50" t="s">
+      <c r="A71" s="59"/>
+      <c r="B71" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D71" s="41" t="s">
@@ -3727,9 +3735,9 @@
       <c r="G71" s="26"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="56"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="51"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="41" t="s">
         <v>60</v>
       </c>
@@ -3738,9 +3746,9 @@
       <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="56"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="41" t="s">
         <v>73</v>
       </c>
@@ -3749,9 +3757,9 @@
       <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="56"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="41" t="s">
         <v>62</v>
       </c>
@@ -3760,9 +3768,9 @@
       <c r="G74" s="26"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="56"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="51"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="41" t="s">
         <v>63</v>
       </c>
@@ -3771,11 +3779,11 @@
       <c r="G75" s="26"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="56"/>
-      <c r="B76" s="50" t="s">
+      <c r="A76" s="59"/>
+      <c r="B76" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D76" s="41" t="s">
@@ -3786,9 +3794,9 @@
       <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="56"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="41" t="s">
         <v>60</v>
       </c>
@@ -3797,9 +3805,9 @@
       <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="56"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="51"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="41" t="s">
         <v>73</v>
       </c>
@@ -3808,9 +3816,9 @@
       <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="56"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="51"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="41" t="s">
         <v>62</v>
       </c>
@@ -3819,9 +3827,9 @@
       <c r="G79" s="26"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="56"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="51"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="41" t="s">
         <v>63</v>
       </c>
@@ -3830,11 +3838,11 @@
       <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="56"/>
-      <c r="B81" s="50" t="s">
+      <c r="A81" s="59"/>
+      <c r="B81" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C81" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D81" s="41" t="s">
@@ -3845,9 +3853,9 @@
       <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="56"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="51"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="41" t="s">
         <v>60</v>
       </c>
@@ -3856,9 +3864,9 @@
       <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="56"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="51"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="41" t="s">
         <v>73</v>
       </c>
@@ -3867,9 +3875,9 @@
       <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="56"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="51"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="41" t="s">
         <v>62</v>
       </c>
@@ -3878,9 +3886,9 @@
       <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A85" s="56"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="51"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="41" t="s">
         <v>63</v>
       </c>
@@ -3889,13 +3897,13 @@
       <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D86" s="41" t="s">
@@ -3907,9 +3915,9 @@
       <c r="I86" s="37"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="56"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="51"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="54"/>
       <c r="D87" s="41" t="s">
         <v>60</v>
       </c>
@@ -3919,9 +3927,9 @@
       <c r="I87" s="37"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="56"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="51"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="54"/>
       <c r="D88" s="41" t="s">
         <v>73</v>
       </c>
@@ -3931,9 +3939,9 @@
       <c r="I88" s="37"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="56"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="51"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="54"/>
       <c r="D89" s="41" t="s">
         <v>62</v>
       </c>
@@ -3943,9 +3951,9 @@
       <c r="I89" s="37"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="56"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="51"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="54"/>
       <c r="D90" s="41" t="s">
         <v>63</v>
       </c>
@@ -3954,11 +3962,11 @@
       <c r="G90" s="26"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="56"/>
-      <c r="B91" s="50" t="s">
+      <c r="A91" s="59"/>
+      <c r="B91" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C91" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D91" s="41" t="s">
@@ -3969,9 +3977,9 @@
       <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="56"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="51"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="54"/>
       <c r="D92" s="41" t="s">
         <v>60</v>
       </c>
@@ -3980,9 +3988,9 @@
       <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="56"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="51"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="41" t="s">
         <v>73</v>
       </c>
@@ -3991,9 +3999,9 @@
       <c r="G93" s="26"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="56"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="51"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="41" t="s">
         <v>62</v>
       </c>
@@ -4002,9 +4010,9 @@
       <c r="G94" s="26"/>
     </row>
     <row r="95" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A95" s="56"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="51"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
       <c r="D95" s="41" t="s">
         <v>63</v>
       </c>
@@ -4014,13 +4022,13 @@
       <c r="I95" s="35"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="55" t="s">
+      <c r="A96" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D96" s="41" t="s">
@@ -4032,9 +4040,9 @@
       <c r="I96" s="36"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="56"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="51"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
       <c r="D97" s="41" t="s">
         <v>60</v>
       </c>
@@ -4044,9 +4052,9 @@
       <c r="I97" s="36"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="56"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="51"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="54"/>
       <c r="D98" s="41" t="s">
         <v>73</v>
       </c>
@@ -4056,9 +4064,9 @@
       <c r="I98" s="36"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="56"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="51"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="41" t="s">
         <v>62</v>
       </c>
@@ -4068,9 +4076,9 @@
       <c r="I99" s="36"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="56"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="51"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="54"/>
       <c r="D100" s="41" t="s">
         <v>63</v>
       </c>
@@ -4079,11 +4087,11 @@
       <c r="G100" s="26"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="56"/>
-      <c r="B101" s="50" t="s">
+      <c r="A101" s="59"/>
+      <c r="B101" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C101" s="51" t="s">
+      <c r="C101" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="41" t="s">
@@ -4094,9 +4102,9 @@
       <c r="G101" s="26"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="56"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="51"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="54"/>
       <c r="D102" s="41" t="s">
         <v>60</v>
       </c>
@@ -4105,9 +4113,9 @@
       <c r="G102" s="26"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="56"/>
-      <c r="B103" s="50"/>
-      <c r="C103" s="51"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="54"/>
       <c r="D103" s="41" t="s">
         <v>73</v>
       </c>
@@ -4116,9 +4124,9 @@
       <c r="G103" s="26"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="56"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="51"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="54"/>
       <c r="D104" s="41" t="s">
         <v>62</v>
       </c>
@@ -4127,9 +4135,9 @@
       <c r="G104" s="26"/>
     </row>
     <row r="105" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A105" s="56"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="51"/>
+      <c r="A105" s="59"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="54"/>
       <c r="D105" s="41" t="s">
         <v>63</v>
       </c>
@@ -4138,13 +4146,13 @@
       <c r="G105" s="26"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="55" t="s">
+      <c r="A106" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B106" s="50" t="s">
+      <c r="B106" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="41" t="s">
@@ -4155,9 +4163,9 @@
       <c r="G106" s="26"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="56"/>
-      <c r="B107" s="50"/>
-      <c r="C107" s="51"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="41" t="s">
         <v>60</v>
       </c>
@@ -4166,9 +4174,9 @@
       <c r="G107" s="26"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="56"/>
-      <c r="B108" s="50"/>
-      <c r="C108" s="51"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="54"/>
       <c r="D108" s="41" t="s">
         <v>73</v>
       </c>
@@ -4177,9 +4185,9 @@
       <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="56"/>
-      <c r="B109" s="50"/>
-      <c r="C109" s="51"/>
+      <c r="A109" s="59"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="54"/>
       <c r="D109" s="41" t="s">
         <v>62</v>
       </c>
@@ -4188,9 +4196,9 @@
       <c r="G109" s="26"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="56"/>
-      <c r="B110" s="50"/>
-      <c r="C110" s="51"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="54"/>
       <c r="D110" s="41" t="s">
         <v>63</v>
       </c>
@@ -4199,11 +4207,11 @@
       <c r="G110" s="26"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="56"/>
-      <c r="B111" s="50" t="s">
+      <c r="A111" s="59"/>
+      <c r="B111" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C111" s="51" t="s">
+      <c r="C111" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D111" s="41" t="s">
@@ -4214,9 +4222,9 @@
       <c r="G111" s="26"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="56"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="51"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="54"/>
       <c r="D112" s="41" t="s">
         <v>60</v>
       </c>
@@ -4225,9 +4233,9 @@
       <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="56"/>
-      <c r="B113" s="50"/>
-      <c r="C113" s="51"/>
+      <c r="A113" s="59"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="54"/>
       <c r="D113" s="41" t="s">
         <v>73</v>
       </c>
@@ -4236,9 +4244,9 @@
       <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="56"/>
-      <c r="B114" s="50"/>
-      <c r="C114" s="51"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="54"/>
       <c r="D114" s="41" t="s">
         <v>62</v>
       </c>
@@ -4247,9 +4255,9 @@
       <c r="G114" s="34"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="56"/>
-      <c r="B115" s="50"/>
-      <c r="C115" s="51"/>
+      <c r="A115" s="59"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="54"/>
       <c r="D115" s="41" t="s">
         <v>63</v>
       </c>
@@ -4258,13 +4266,13 @@
       <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="55" t="s">
+      <c r="A116" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="50" t="s">
+      <c r="B116" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C116" s="51" t="s">
+      <c r="C116" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D116" s="41" t="s">
@@ -4275,9 +4283,9 @@
       <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="56"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="51"/>
+      <c r="A117" s="59"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="54"/>
       <c r="D117" s="41" t="s">
         <v>60</v>
       </c>
@@ -4286,9 +4294,9 @@
       <c r="G117" s="26"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="56"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="51"/>
+      <c r="A118" s="59"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="54"/>
       <c r="D118" s="41" t="s">
         <v>73</v>
       </c>
@@ -4297,9 +4305,9 @@
       <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="56"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="51"/>
+      <c r="A119" s="59"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="54"/>
       <c r="D119" s="41" t="s">
         <v>62</v>
       </c>
@@ -4308,9 +4316,9 @@
       <c r="G119" s="26"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="56"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="51"/>
+      <c r="A120" s="59"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="54"/>
       <c r="D120" s="41" t="s">
         <v>63</v>
       </c>
@@ -4319,11 +4327,11 @@
       <c r="G120" s="26"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="56"/>
-      <c r="B121" s="50" t="s">
+      <c r="A121" s="59"/>
+      <c r="B121" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="51" t="s">
+      <c r="C121" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D121" s="41" t="s">
@@ -4334,9 +4342,9 @@
       <c r="G121" s="38"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="56"/>
-      <c r="B122" s="50"/>
-      <c r="C122" s="51"/>
+      <c r="A122" s="59"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="54"/>
       <c r="D122" s="41" t="s">
         <v>60</v>
       </c>
@@ -4345,9 +4353,9 @@
       <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="56"/>
-      <c r="B123" s="50"/>
-      <c r="C123" s="51"/>
+      <c r="A123" s="59"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="54"/>
       <c r="D123" s="41" t="s">
         <v>73</v>
       </c>
@@ -4356,9 +4364,9 @@
       <c r="G123" s="38"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="56"/>
-      <c r="B124" s="50"/>
-      <c r="C124" s="51"/>
+      <c r="A124" s="59"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="54"/>
       <c r="D124" s="41" t="s">
         <v>62</v>
       </c>
@@ -4367,9 +4375,9 @@
       <c r="G124" s="38"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="56"/>
-      <c r="B125" s="50"/>
-      <c r="C125" s="51"/>
+      <c r="A125" s="59"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="54"/>
       <c r="D125" s="41" t="s">
         <v>63</v>
       </c>
@@ -4378,13 +4386,13 @@
       <c r="G125" s="38"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="55" t="s">
+      <c r="A126" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B126" s="50" t="s">
+      <c r="B126" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C126" s="51" t="s">
+      <c r="C126" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D126" s="41" t="s">
@@ -4395,9 +4403,9 @@
       <c r="G126" s="38"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="56"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="51"/>
+      <c r="A127" s="59"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="54"/>
       <c r="D127" s="41" t="s">
         <v>60</v>
       </c>
@@ -4406,9 +4414,9 @@
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="56"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="51"/>
+      <c r="A128" s="59"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="54"/>
       <c r="D128" s="41" t="s">
         <v>73</v>
       </c>
@@ -4417,9 +4425,9 @@
       <c r="G128" s="38"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="56"/>
-      <c r="B129" s="50"/>
-      <c r="C129" s="51"/>
+      <c r="A129" s="59"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="54"/>
       <c r="D129" s="41" t="s">
         <v>62</v>
       </c>
@@ -4428,9 +4436,9 @@
       <c r="G129" s="38"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="56"/>
-      <c r="B130" s="50"/>
-      <c r="C130" s="51"/>
+      <c r="A130" s="59"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="54"/>
       <c r="D130" s="41" t="s">
         <v>63</v>
       </c>
@@ -4439,11 +4447,11 @@
       <c r="G130" s="38"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="56"/>
-      <c r="B131" s="50" t="s">
+      <c r="A131" s="59"/>
+      <c r="B131" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C131" s="51" t="s">
+      <c r="C131" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D131" s="41" t="s">
@@ -4454,9 +4462,9 @@
       <c r="G131" s="38"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="56"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="51"/>
+      <c r="A132" s="59"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="54"/>
       <c r="D132" s="41" t="s">
         <v>60</v>
       </c>
@@ -4465,9 +4473,9 @@
       <c r="G132" s="38"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="56"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="51"/>
+      <c r="A133" s="59"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="54"/>
       <c r="D133" s="41" t="s">
         <v>73</v>
       </c>
@@ -4476,9 +4484,9 @@
       <c r="G133" s="38"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="56"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="51"/>
+      <c r="A134" s="59"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="54"/>
       <c r="D134" s="41" t="s">
         <v>62</v>
       </c>
@@ -4487,9 +4495,9 @@
       <c r="G134" s="38"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="56"/>
-      <c r="B135" s="50"/>
-      <c r="C135" s="51"/>
+      <c r="A135" s="59"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="54"/>
       <c r="D135" s="41" t="s">
         <v>63</v>
       </c>
@@ -4498,13 +4506,13 @@
       <c r="G135" s="38"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="52" t="s">
+      <c r="A136" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="50">
+      <c r="B136" s="53">
         <v>692</v>
       </c>
-      <c r="C136" s="51" t="s">
+      <c r="C136" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D136" s="41" t="s">
@@ -4515,9 +4523,9 @@
       <c r="G136" s="38"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="53"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="51"/>
+      <c r="A137" s="61"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="54"/>
       <c r="D137" s="41" t="s">
         <v>60</v>
       </c>
@@ -4526,9 +4534,9 @@
       <c r="G137" s="38"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="53"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="51"/>
+      <c r="A138" s="61"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="54"/>
       <c r="D138" s="41" t="s">
         <v>73</v>
       </c>
@@ -4537,9 +4545,9 @@
       <c r="G138" s="39"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="53"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="51"/>
+      <c r="A139" s="61"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="54"/>
       <c r="D139" s="41" t="s">
         <v>62</v>
       </c>
@@ -4548,9 +4556,9 @@
       <c r="G139" s="39"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="54"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="51"/>
+      <c r="A140" s="62"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="54"/>
       <c r="D140" s="41" t="s">
         <v>63</v>
       </c>
@@ -4561,15 +4569,50 @@
   </sheetData>
   <autoFilter ref="A1:H140" xr:uid="{62398E3D-9E42-4D35-B734-C747CB49DED4}"/>
   <mergeCells count="66">
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="A116:A125"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="A86:A95"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="A66:A85"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="A51:A65"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
     <mergeCell ref="C41:C45"/>
     <mergeCell ref="B46:B50"/>
     <mergeCell ref="C46:C50"/>
@@ -4583,50 +4626,15 @@
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A51:A65"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="A66:A85"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="A86:A95"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="A116:A125"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A126:A135"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/叶焕发的学习规划表.xlsx
+++ b/叶焕发的学习规划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11356\Desktop\NAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5CE669-FCF9-488C-A556-81BEFCD70417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE99F0F-E0B5-4094-90B8-C4F570676FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{E377C15B-1D26-438C-8534-8CC4902F7C32}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -1106,7 +1106,25 @@
     <xf numFmtId="55" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,12 +1133,6 @@
     <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1130,19 +1142,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2698,7 +2698,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
@@ -2737,13 +2737,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="51" t="s">
         <v>108</v>
       </c>
       <c r="D2" s="41" t="s">
@@ -2759,9 +2759,9 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="41" t="s">
         <v>60</v>
       </c>
@@ -2775,23 +2775,25 @@
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="41" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G4" s="26"/>
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="41" t="s">
         <v>62</v>
       </c>
@@ -2801,9 +2803,9 @@
       <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="51"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="41" t="s">
         <v>63</v>
       </c>
@@ -2816,11 +2818,11 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="51"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -2835,35 +2837,39 @@
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="51"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="56"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="41" t="s">
         <v>60</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="51"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="56"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="41" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="51"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="56"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="41" t="s">
         <v>62</v>
       </c>
@@ -2872,9 +2878,9 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="51"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="41" t="s">
         <v>63</v>
       </c>
@@ -2887,11 +2893,11 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="51"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="59" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="41" t="s">
@@ -2906,22 +2912,24 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="51"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="41" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="51"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="56"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="41" t="s">
         <v>61</v>
       </c>
@@ -2934,9 +2942,9 @@
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="41" t="s">
         <v>62</v>
       </c>
@@ -2945,22 +2953,26 @@
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="57"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="51"/>
-      <c r="B17" s="53" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="51" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="41" t="s">
@@ -2975,9 +2987,9 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="51"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="41" t="s">
         <v>102</v>
       </c>
@@ -2990,9 +3002,9 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="51"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="41" t="s">
         <v>69</v>
       </c>
@@ -3005,9 +3017,9 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="41" t="s">
         <v>70</v>
       </c>
@@ -3020,13 +3032,13 @@
       <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D21" s="41" t="s">
@@ -3041,9 +3053,9 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="51"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="41" t="s">
         <v>60</v>
       </c>
@@ -3056,9 +3068,9 @@
       <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="51"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="41" t="s">
         <v>61</v>
       </c>
@@ -3071,20 +3083,24 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="51"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
+      <c r="E24" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="51"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="41" t="s">
         <v>63</v>
       </c>
@@ -3097,11 +3113,11 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="51"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -3116,9 +3132,9 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="51"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="41" t="s">
         <v>60</v>
       </c>
@@ -3131,9 +3147,9 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="51"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="41" t="s">
         <v>73</v>
       </c>
@@ -3146,9 +3162,9 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="51"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="41" t="s">
         <v>62</v>
       </c>
@@ -3157,9 +3173,9 @@
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="51"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="54"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="41" t="s">
         <v>63</v>
       </c>
@@ -3172,11 +3188,11 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="51"/>
-      <c r="B31" s="53" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="59" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="41" t="s">
@@ -3191,9 +3207,9 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="51"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="56"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="41" t="s">
         <v>60</v>
       </c>
@@ -3206,9 +3222,9 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="51"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="56"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="41" t="s">
         <v>73</v>
       </c>
@@ -3221,9 +3237,9 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="51"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="56"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="41" t="s">
         <v>62</v>
       </c>
@@ -3232,9 +3248,9 @@
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="51"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="57"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="41" t="s">
         <v>75</v>
       </c>
@@ -3247,11 +3263,11 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="51"/>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="41" t="s">
@@ -3266,9 +3282,9 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="51"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="41" t="s">
         <v>60</v>
       </c>
@@ -3281,9 +3297,9 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="51"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="54"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="41" t="s">
         <v>73</v>
       </c>
@@ -3296,9 +3312,9 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="51"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="54"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="41" t="s">
         <v>62</v>
       </c>
@@ -3307,9 +3323,9 @@
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="51"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="41" t="s">
         <v>63</v>
       </c>
@@ -3322,11 +3338,11 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="51"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="41" t="s">
@@ -3341,9 +3357,9 @@
       <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="51"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="41" t="s">
         <v>60</v>
       </c>
@@ -3356,9 +3372,9 @@
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="51"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="54"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
       <c r="D43" s="41" t="s">
         <v>73</v>
       </c>
@@ -3371,9 +3387,9 @@
       <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="51"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
       <c r="D44" s="41" t="s">
         <v>62</v>
       </c>
@@ -3382,9 +3398,9 @@
       <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="51"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="54"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="41" t="s">
         <v>63</v>
       </c>
@@ -3397,11 +3413,11 @@
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="51"/>
-      <c r="B46" s="53" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -3416,9 +3432,9 @@
       <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="51"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="54"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="41" t="s">
         <v>60</v>
       </c>
@@ -3431,9 +3447,9 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="51"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="54"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="41" t="s">
         <v>73</v>
       </c>
@@ -3446,9 +3462,9 @@
       <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="51"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="54"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="41" t="s">
         <v>62</v>
       </c>
@@ -3457,9 +3473,9 @@
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="52"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="54"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="41" t="s">
         <v>63</v>
       </c>
@@ -3472,13 +3488,13 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="41" t="s">
@@ -3490,9 +3506,9 @@
       <c r="I51" s="37"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="59"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="54"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="41" t="s">
         <v>60</v>
       </c>
@@ -3502,9 +3518,9 @@
       <c r="I52" s="37"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="59"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="54"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="41" t="s">
         <v>73</v>
       </c>
@@ -3514,9 +3530,9 @@
       <c r="I53" s="37"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="59"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="41" t="s">
         <v>62</v>
       </c>
@@ -3526,9 +3542,9 @@
       <c r="I54" s="37"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="59"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="54"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="41" t="s">
         <v>63</v>
       </c>
@@ -3537,11 +3553,11 @@
       <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="59"/>
-      <c r="B56" s="53" t="s">
+      <c r="A56" s="56"/>
+      <c r="B56" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D56" s="41" t="s">
@@ -3552,9 +3568,9 @@
       <c r="G56" s="34"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="59"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="54"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="41" t="s">
         <v>60</v>
       </c>
@@ -3563,9 +3579,9 @@
       <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="59"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="54"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="41" t="s">
         <v>73</v>
       </c>
@@ -3574,9 +3590,9 @@
       <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="59"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="54"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="41" t="s">
         <v>62</v>
       </c>
@@ -3585,9 +3601,9 @@
       <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="59"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="54"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="41" t="s">
         <v>63</v>
       </c>
@@ -3596,11 +3612,11 @@
       <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="59"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="56"/>
+      <c r="B61" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D61" s="41" t="s">
@@ -3611,9 +3627,9 @@
       <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="59"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="54"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="41" t="s">
         <v>60</v>
       </c>
@@ -3622,9 +3638,9 @@
       <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="59"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="54"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="41" t="s">
         <v>73</v>
       </c>
@@ -3633,9 +3649,9 @@
       <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="59"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="54"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="51"/>
       <c r="D64" s="41" t="s">
         <v>62</v>
       </c>
@@ -3644,9 +3660,9 @@
       <c r="G64" s="26"/>
     </row>
     <row r="65" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="54"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="51"/>
       <c r="D65" s="41" t="s">
         <v>63</v>
       </c>
@@ -3655,13 +3671,13 @@
       <c r="G65" s="26"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D66" s="41" t="s">
@@ -3673,9 +3689,9 @@
       <c r="I66" s="37"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="59"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="54"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="51"/>
       <c r="D67" s="41" t="s">
         <v>60</v>
       </c>
@@ -3685,9 +3701,9 @@
       <c r="I67" s="37"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="59"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="54"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="41" t="s">
         <v>73</v>
       </c>
@@ -3697,9 +3713,9 @@
       <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="59"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="54"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="41" t="s">
         <v>62</v>
       </c>
@@ -3709,9 +3725,9 @@
       <c r="I69" s="37"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="59"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="54"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="41" t="s">
         <v>63</v>
       </c>
@@ -3720,11 +3736,11 @@
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="59"/>
-      <c r="B71" s="53" t="s">
+      <c r="A71" s="56"/>
+      <c r="B71" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="C71" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D71" s="41" t="s">
@@ -3735,9 +3751,9 @@
       <c r="G71" s="26"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="59"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="54"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="41" t="s">
         <v>60</v>
       </c>
@@ -3746,9 +3762,9 @@
       <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="59"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="54"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="41" t="s">
         <v>73</v>
       </c>
@@ -3757,9 +3773,9 @@
       <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="59"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="54"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
       <c r="D74" s="41" t="s">
         <v>62</v>
       </c>
@@ -3768,9 +3784,9 @@
       <c r="G74" s="26"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="59"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="54"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
       <c r="D75" s="41" t="s">
         <v>63</v>
       </c>
@@ -3779,11 +3795,11 @@
       <c r="G75" s="26"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="59"/>
-      <c r="B76" s="53" t="s">
+      <c r="A76" s="56"/>
+      <c r="B76" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="54" t="s">
+      <c r="C76" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D76" s="41" t="s">
@@ -3794,9 +3810,9 @@
       <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="59"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="54"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
       <c r="D77" s="41" t="s">
         <v>60</v>
       </c>
@@ -3805,9 +3821,9 @@
       <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="59"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="54"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="41" t="s">
         <v>73</v>
       </c>
@@ -3816,9 +3832,9 @@
       <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="59"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="54"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="41" t="s">
         <v>62</v>
       </c>
@@ -3827,9 +3843,9 @@
       <c r="G79" s="26"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="59"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="54"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="41" t="s">
         <v>63</v>
       </c>
@@ -3838,11 +3854,11 @@
       <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="59"/>
-      <c r="B81" s="53" t="s">
+      <c r="A81" s="56"/>
+      <c r="B81" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D81" s="41" t="s">
@@ -3853,9 +3869,9 @@
       <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="59"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="54"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="51"/>
       <c r="D82" s="41" t="s">
         <v>60</v>
       </c>
@@ -3864,9 +3880,9 @@
       <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="59"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="54"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="41" t="s">
         <v>73</v>
       </c>
@@ -3875,9 +3891,9 @@
       <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="59"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="54"/>
+      <c r="A84" s="56"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="51"/>
       <c r="D84" s="41" t="s">
         <v>62</v>
       </c>
@@ -3886,9 +3902,9 @@
       <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A85" s="59"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="54"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="41" t="s">
         <v>63</v>
       </c>
@@ -3897,13 +3913,13 @@
       <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="58" t="s">
+      <c r="A86" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="53" t="s">
+      <c r="B86" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="54" t="s">
+      <c r="C86" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D86" s="41" t="s">
@@ -3915,9 +3931,9 @@
       <c r="I86" s="37"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="59"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="54"/>
+      <c r="A87" s="56"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="51"/>
       <c r="D87" s="41" t="s">
         <v>60</v>
       </c>
@@ -3927,9 +3943,9 @@
       <c r="I87" s="37"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="59"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="54"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="51"/>
       <c r="D88" s="41" t="s">
         <v>73</v>
       </c>
@@ -3939,9 +3955,9 @@
       <c r="I88" s="37"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="59"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="54"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="51"/>
       <c r="D89" s="41" t="s">
         <v>62</v>
       </c>
@@ -3951,9 +3967,9 @@
       <c r="I89" s="37"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="59"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="54"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="51"/>
       <c r="D90" s="41" t="s">
         <v>63</v>
       </c>
@@ -3962,11 +3978,11 @@
       <c r="G90" s="26"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="59"/>
-      <c r="B91" s="53" t="s">
+      <c r="A91" s="56"/>
+      <c r="B91" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="54" t="s">
+      <c r="C91" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D91" s="41" t="s">
@@ -3977,9 +3993,9 @@
       <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="59"/>
-      <c r="B92" s="53"/>
-      <c r="C92" s="54"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="51"/>
       <c r="D92" s="41" t="s">
         <v>60</v>
       </c>
@@ -3988,9 +4004,9 @@
       <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="59"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="54"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="51"/>
       <c r="D93" s="41" t="s">
         <v>73</v>
       </c>
@@ -3999,9 +4015,9 @@
       <c r="G93" s="26"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="59"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="54"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="51"/>
       <c r="D94" s="41" t="s">
         <v>62</v>
       </c>
@@ -4010,9 +4026,9 @@
       <c r="G94" s="26"/>
     </row>
     <row r="95" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A95" s="59"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="54"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="51"/>
       <c r="D95" s="41" t="s">
         <v>63</v>
       </c>
@@ -4022,13 +4038,13 @@
       <c r="I95" s="35"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="58" t="s">
+      <c r="A96" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="54" t="s">
+      <c r="C96" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D96" s="41" t="s">
@@ -4040,9 +4056,9 @@
       <c r="I96" s="36"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="59"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="54"/>
+      <c r="A97" s="56"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="51"/>
       <c r="D97" s="41" t="s">
         <v>60</v>
       </c>
@@ -4052,9 +4068,9 @@
       <c r="I97" s="36"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="59"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="54"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="51"/>
       <c r="D98" s="41" t="s">
         <v>73</v>
       </c>
@@ -4064,9 +4080,9 @@
       <c r="I98" s="36"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="59"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="54"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="51"/>
       <c r="D99" s="41" t="s">
         <v>62</v>
       </c>
@@ -4076,9 +4092,9 @@
       <c r="I99" s="36"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="59"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="54"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="51"/>
       <c r="D100" s="41" t="s">
         <v>63</v>
       </c>
@@ -4087,11 +4103,11 @@
       <c r="G100" s="26"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="59"/>
-      <c r="B101" s="53" t="s">
+      <c r="A101" s="56"/>
+      <c r="B101" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C101" s="54" t="s">
+      <c r="C101" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="41" t="s">
@@ -4102,9 +4118,9 @@
       <c r="G101" s="26"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="59"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="54"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="51"/>
       <c r="D102" s="41" t="s">
         <v>60</v>
       </c>
@@ -4113,9 +4129,9 @@
       <c r="G102" s="26"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="59"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="54"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="51"/>
       <c r="D103" s="41" t="s">
         <v>73</v>
       </c>
@@ -4124,9 +4140,9 @@
       <c r="G103" s="26"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="59"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="54"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="51"/>
       <c r="D104" s="41" t="s">
         <v>62</v>
       </c>
@@ -4135,9 +4151,9 @@
       <c r="G104" s="26"/>
     </row>
     <row r="105" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A105" s="59"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="54"/>
+      <c r="A105" s="56"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="51"/>
       <c r="D105" s="41" t="s">
         <v>63</v>
       </c>
@@ -4146,13 +4162,13 @@
       <c r="G105" s="26"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="58" t="s">
+      <c r="A106" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="54" t="s">
+      <c r="C106" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="41" t="s">
@@ -4163,9 +4179,9 @@
       <c r="G106" s="26"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="59"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="54"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="51"/>
       <c r="D107" s="41" t="s">
         <v>60</v>
       </c>
@@ -4174,9 +4190,9 @@
       <c r="G107" s="26"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="59"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="54"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="51"/>
       <c r="D108" s="41" t="s">
         <v>73</v>
       </c>
@@ -4185,9 +4201,9 @@
       <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="59"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="54"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="51"/>
       <c r="D109" s="41" t="s">
         <v>62</v>
       </c>
@@ -4196,9 +4212,9 @@
       <c r="G109" s="26"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="59"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="54"/>
+      <c r="A110" s="56"/>
+      <c r="B110" s="50"/>
+      <c r="C110" s="51"/>
       <c r="D110" s="41" t="s">
         <v>63</v>
       </c>
@@ -4207,11 +4223,11 @@
       <c r="G110" s="26"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="59"/>
-      <c r="B111" s="53" t="s">
+      <c r="A111" s="56"/>
+      <c r="B111" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C111" s="54" t="s">
+      <c r="C111" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D111" s="41" t="s">
@@ -4222,9 +4238,9 @@
       <c r="G111" s="26"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="59"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="54"/>
+      <c r="A112" s="56"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="41" t="s">
         <v>60</v>
       </c>
@@ -4233,9 +4249,9 @@
       <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="59"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="54"/>
+      <c r="A113" s="56"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="51"/>
       <c r="D113" s="41" t="s">
         <v>73</v>
       </c>
@@ -4244,9 +4260,9 @@
       <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="59"/>
-      <c r="B114" s="53"/>
-      <c r="C114" s="54"/>
+      <c r="A114" s="56"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="51"/>
       <c r="D114" s="41" t="s">
         <v>62</v>
       </c>
@@ -4255,9 +4271,9 @@
       <c r="G114" s="34"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="59"/>
-      <c r="B115" s="53"/>
-      <c r="C115" s="54"/>
+      <c r="A115" s="56"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="51"/>
       <c r="D115" s="41" t="s">
         <v>63</v>
       </c>
@@ -4266,13 +4282,13 @@
       <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="58" t="s">
+      <c r="A116" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C116" s="54" t="s">
+      <c r="C116" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D116" s="41" t="s">
@@ -4283,9 +4299,9 @@
       <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="59"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="54"/>
+      <c r="A117" s="56"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="51"/>
       <c r="D117" s="41" t="s">
         <v>60</v>
       </c>
@@ -4294,9 +4310,9 @@
       <c r="G117" s="26"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="59"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="54"/>
+      <c r="A118" s="56"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="51"/>
       <c r="D118" s="41" t="s">
         <v>73</v>
       </c>
@@ -4305,9 +4321,9 @@
       <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="59"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="54"/>
+      <c r="A119" s="56"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="51"/>
       <c r="D119" s="41" t="s">
         <v>62</v>
       </c>
@@ -4316,9 +4332,9 @@
       <c r="G119" s="26"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="59"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="54"/>
+      <c r="A120" s="56"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="51"/>
       <c r="D120" s="41" t="s">
         <v>63</v>
       </c>
@@ -4327,11 +4343,11 @@
       <c r="G120" s="26"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="59"/>
-      <c r="B121" s="53" t="s">
+      <c r="A121" s="56"/>
+      <c r="B121" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="54" t="s">
+      <c r="C121" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D121" s="41" t="s">
@@ -4342,9 +4358,9 @@
       <c r="G121" s="38"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="59"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="54"/>
+      <c r="A122" s="56"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="41" t="s">
         <v>60</v>
       </c>
@@ -4353,9 +4369,9 @@
       <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="59"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="54"/>
+      <c r="A123" s="56"/>
+      <c r="B123" s="50"/>
+      <c r="C123" s="51"/>
       <c r="D123" s="41" t="s">
         <v>73</v>
       </c>
@@ -4364,9 +4380,9 @@
       <c r="G123" s="38"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="59"/>
-      <c r="B124" s="53"/>
-      <c r="C124" s="54"/>
+      <c r="A124" s="56"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="51"/>
       <c r="D124" s="41" t="s">
         <v>62</v>
       </c>
@@ -4375,9 +4391,9 @@
       <c r="G124" s="38"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="59"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="54"/>
+      <c r="A125" s="56"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="51"/>
       <c r="D125" s="41" t="s">
         <v>63</v>
       </c>
@@ -4386,13 +4402,13 @@
       <c r="G125" s="38"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="58" t="s">
+      <c r="A126" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="B126" s="53" t="s">
+      <c r="B126" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C126" s="54" t="s">
+      <c r="C126" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D126" s="41" t="s">
@@ -4403,9 +4419,9 @@
       <c r="G126" s="38"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="59"/>
-      <c r="B127" s="53"/>
-      <c r="C127" s="54"/>
+      <c r="A127" s="56"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="51"/>
       <c r="D127" s="41" t="s">
         <v>60</v>
       </c>
@@ -4414,9 +4430,9 @@
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="59"/>
-      <c r="B128" s="53"/>
-      <c r="C128" s="54"/>
+      <c r="A128" s="56"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="51"/>
       <c r="D128" s="41" t="s">
         <v>73</v>
       </c>
@@ -4425,9 +4441,9 @@
       <c r="G128" s="38"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="59"/>
-      <c r="B129" s="53"/>
-      <c r="C129" s="54"/>
+      <c r="A129" s="56"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="51"/>
       <c r="D129" s="41" t="s">
         <v>62</v>
       </c>
@@ -4436,9 +4452,9 @@
       <c r="G129" s="38"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="59"/>
-      <c r="B130" s="53"/>
-      <c r="C130" s="54"/>
+      <c r="A130" s="56"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="51"/>
       <c r="D130" s="41" t="s">
         <v>63</v>
       </c>
@@ -4447,11 +4463,11 @@
       <c r="G130" s="38"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="59"/>
-      <c r="B131" s="53" t="s">
+      <c r="A131" s="56"/>
+      <c r="B131" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C131" s="54" t="s">
+      <c r="C131" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D131" s="41" t="s">
@@ -4462,9 +4478,9 @@
       <c r="G131" s="38"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="59"/>
-      <c r="B132" s="53"/>
-      <c r="C132" s="54"/>
+      <c r="A132" s="56"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="51"/>
       <c r="D132" s="41" t="s">
         <v>60</v>
       </c>
@@ -4473,9 +4489,9 @@
       <c r="G132" s="38"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="59"/>
-      <c r="B133" s="53"/>
-      <c r="C133" s="54"/>
+      <c r="A133" s="56"/>
+      <c r="B133" s="50"/>
+      <c r="C133" s="51"/>
       <c r="D133" s="41" t="s">
         <v>73</v>
       </c>
@@ -4484,9 +4500,9 @@
       <c r="G133" s="38"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="59"/>
-      <c r="B134" s="53"/>
-      <c r="C134" s="54"/>
+      <c r="A134" s="56"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="51"/>
       <c r="D134" s="41" t="s">
         <v>62</v>
       </c>
@@ -4495,9 +4511,9 @@
       <c r="G134" s="38"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="59"/>
-      <c r="B135" s="53"/>
-      <c r="C135" s="54"/>
+      <c r="A135" s="56"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="51"/>
       <c r="D135" s="41" t="s">
         <v>63</v>
       </c>
@@ -4506,13 +4522,13 @@
       <c r="G135" s="38"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="60" t="s">
+      <c r="A136" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="53">
+      <c r="B136" s="50">
         <v>692</v>
       </c>
-      <c r="C136" s="54" t="s">
+      <c r="C136" s="51" t="s">
         <v>107</v>
       </c>
       <c r="D136" s="41" t="s">
@@ -4523,9 +4539,9 @@
       <c r="G136" s="38"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="61"/>
-      <c r="B137" s="53"/>
-      <c r="C137" s="54"/>
+      <c r="A137" s="53"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="51"/>
       <c r="D137" s="41" t="s">
         <v>60</v>
       </c>
@@ -4534,9 +4550,9 @@
       <c r="G137" s="38"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="61"/>
-      <c r="B138" s="53"/>
-      <c r="C138" s="54"/>
+      <c r="A138" s="53"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="51"/>
       <c r="D138" s="41" t="s">
         <v>73</v>
       </c>
@@ -4545,9 +4561,9 @@
       <c r="G138" s="39"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="61"/>
-      <c r="B139" s="53"/>
-      <c r="C139" s="54"/>
+      <c r="A139" s="53"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="51"/>
       <c r="D139" s="41" t="s">
         <v>62</v>
       </c>
@@ -4556,9 +4572,9 @@
       <c r="G139" s="39"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="62"/>
-      <c r="B140" s="53"/>
-      <c r="C140" s="54"/>
+      <c r="A140" s="54"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="51"/>
       <c r="D140" s="41" t="s">
         <v>63</v>
       </c>
@@ -4569,50 +4585,15 @@
   </sheetData>
   <autoFilter ref="A1:H140" xr:uid="{62398E3D-9E42-4D35-B734-C747CB49DED4}"/>
   <mergeCells count="66">
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A126:A135"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="C131:C135"/>
-    <mergeCell ref="A116:A125"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="A86:A95"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="A66:A85"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="A51:A65"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
     <mergeCell ref="C41:C45"/>
     <mergeCell ref="B46:B50"/>
     <mergeCell ref="C46:C50"/>
@@ -4626,15 +4607,50 @@
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="A51:A65"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="A66:A85"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="A86:A95"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="A116:A125"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="C131:C135"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/叶焕发的学习规划表.xlsx
+++ b/叶焕发的学习规划表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11356\Desktop\NAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE99F0F-E0B5-4094-90B8-C4F570676FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E3FB42-D674-4044-A3DE-9655B02951ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{E377C15B-1D26-438C-8534-8CC4902F7C32}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E377C15B-1D26-438C-8534-8CC4902F7C32}"/>
   </bookViews>
   <sheets>
     <sheet name="学习计划表 (信息安全)" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="110">
   <si>
     <r>
       <rPr>
@@ -767,7 +767,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,6 +795,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1106,12 +1112,36 @@
     <xf numFmtId="55" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1121,28 +1151,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1463,7 +1475,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32:AB32"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2697,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62398E3D-9E42-4D35-B734-C747CB49DED4}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18"/>
@@ -2737,13 +2749,13 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="54" t="s">
         <v>108</v>
       </c>
       <c r="D2" s="41" t="s">
@@ -2759,9 +2771,9 @@
       <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="57"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="41" t="s">
         <v>60</v>
       </c>
@@ -2775,9 +2787,9 @@
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="57"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="41" t="s">
         <v>61</v>
       </c>
@@ -2791,21 +2803,25 @@
       <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="57"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G5" s="26"/>
       <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="57"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="41" t="s">
         <v>63</v>
       </c>
@@ -2818,11 +2834,11 @@
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="57"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>108</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -2837,9 +2853,9 @@
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="57"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="41" t="s">
         <v>60</v>
       </c>
@@ -2852,9 +2868,9 @@
       <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="57"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="41" t="s">
         <v>61</v>
       </c>
@@ -2867,20 +2883,20 @@
       <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="57"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="57"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="41" t="s">
         <v>63</v>
       </c>
@@ -2893,11 +2909,11 @@
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="57"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="55" t="s">
         <v>108</v>
       </c>
       <c r="D12" s="41" t="s">
@@ -2912,9 +2928,9 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="57"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="41" t="s">
         <v>66</v>
       </c>
@@ -2927,9 +2943,9 @@
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="57"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="41" t="s">
         <v>61</v>
       </c>
@@ -2942,20 +2958,20 @@
       <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="57"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="61"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="41" t="s">
         <v>63</v>
       </c>
@@ -2968,11 +2984,11 @@
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="57"/>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="54" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="41" t="s">
@@ -2987,9 +3003,9 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="57"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="41" t="s">
         <v>102</v>
       </c>
@@ -3002,9 +3018,9 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="57"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="41" t="s">
         <v>69</v>
       </c>
@@ -3017,9 +3033,9 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="58"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="41" t="s">
         <v>70</v>
       </c>
@@ -3032,13 +3048,13 @@
       <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D21" s="41" t="s">
@@ -3053,9 +3069,9 @@
       <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="57"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="41" t="s">
         <v>60</v>
       </c>
@@ -3068,9 +3084,9 @@
       <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="57"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="41" t="s">
         <v>61</v>
       </c>
@@ -3083,9 +3099,9 @@
       <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="57"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="41" t="s">
         <v>62</v>
       </c>
@@ -3098,9 +3114,9 @@
       <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="57"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="41" t="s">
         <v>63</v>
       </c>
@@ -3113,11 +3129,11 @@
       <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="57"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D26" s="41" t="s">
@@ -3132,9 +3148,9 @@
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="57"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="41" t="s">
         <v>60</v>
       </c>
@@ -3147,9 +3163,9 @@
       <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="57"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="41" t="s">
         <v>73</v>
       </c>
@@ -3162,20 +3178,24 @@
       <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="57"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
+      <c r="E29" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="57"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="41" t="s">
         <v>63</v>
       </c>
@@ -3188,11 +3208,11 @@
       <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="57"/>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D31" s="41" t="s">
@@ -3207,9 +3227,9 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="57"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="56"/>
       <c r="D32" s="41" t="s">
         <v>60</v>
       </c>
@@ -3222,9 +3242,9 @@
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="57"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="60"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="41" t="s">
         <v>73</v>
       </c>
@@ -3237,20 +3257,24 @@
       <c r="G33" s="26"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="57"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="60"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
+      <c r="E34" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="G34" s="26"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="57"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="61"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="41" t="s">
         <v>75</v>
       </c>
@@ -3263,11 +3287,11 @@
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="57"/>
-      <c r="B36" s="50" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="41" t="s">
@@ -3282,9 +3306,9 @@
       <c r="G36" s="26"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="57"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="41" t="s">
         <v>60</v>
       </c>
@@ -3297,9 +3321,9 @@
       <c r="G37" s="26"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="57"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="51"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="41" t="s">
         <v>73</v>
       </c>
@@ -3312,20 +3336,20 @@
       <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="57"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="51"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="42"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="64"/>
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="57"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="51"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="41" t="s">
         <v>63</v>
       </c>
@@ -3338,11 +3362,11 @@
       <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="57"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="41" t="s">
@@ -3357,9 +3381,9 @@
       <c r="G41" s="26"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="57"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="41" t="s">
         <v>60</v>
       </c>
@@ -3372,9 +3396,9 @@
       <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="57"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="41" t="s">
         <v>73</v>
       </c>
@@ -3387,20 +3411,20 @@
       <c r="G43" s="26"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="57"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="42"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="64"/>
       <c r="G44" s="26"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="57"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="51"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="41" t="s">
         <v>63</v>
       </c>
@@ -3413,11 +3437,11 @@
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="57"/>
-      <c r="B46" s="50" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -3432,9 +3456,9 @@
       <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="57"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="41" t="s">
         <v>60</v>
       </c>
@@ -3447,9 +3471,9 @@
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="57"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="51"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="41" t="s">
         <v>73</v>
       </c>
@@ -3462,20 +3486,20 @@
       <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="57"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="51"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="42"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="64"/>
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="58"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="41" t="s">
         <v>63</v>
       </c>
@@ -3488,27 +3512,29 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="41"/>
+      <c r="E51" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F51" s="42"/>
       <c r="G51" s="34"/>
       <c r="I51" s="37"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="56"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="51"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="41" t="s">
         <v>60</v>
       </c>
@@ -3518,9 +3544,9 @@
       <c r="I52" s="37"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="56"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="51"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="41" t="s">
         <v>73</v>
       </c>
@@ -3530,9 +3556,9 @@
       <c r="I53" s="37"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="56"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="51"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="41" t="s">
         <v>62</v>
       </c>
@@ -3542,9 +3568,9 @@
       <c r="I54" s="37"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="56"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="51"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="41" t="s">
         <v>63</v>
       </c>
@@ -3553,24 +3579,26 @@
       <c r="G55" s="26"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="56"/>
-      <c r="B56" s="50" t="s">
+      <c r="A56" s="59"/>
+      <c r="B56" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D56" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="41"/>
+      <c r="E56" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F56" s="42"/>
       <c r="G56" s="34"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="56"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="51"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="41" t="s">
         <v>60</v>
       </c>
@@ -3579,9 +3607,9 @@
       <c r="G57" s="26"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="56"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="51"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="41" t="s">
         <v>73</v>
       </c>
@@ -3590,9 +3618,9 @@
       <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="56"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="41" t="s">
         <v>62</v>
       </c>
@@ -3601,9 +3629,9 @@
       <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="56"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="51"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="41" t="s">
         <v>63</v>
       </c>
@@ -3612,24 +3640,26 @@
       <c r="G60" s="26"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="56"/>
-      <c r="B61" s="50" t="s">
+      <c r="A61" s="59"/>
+      <c r="B61" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D61" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="41"/>
+      <c r="E61" s="41" t="s">
+        <v>103</v>
+      </c>
       <c r="F61" s="42"/>
       <c r="G61" s="26"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="56"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="51"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="41" t="s">
         <v>60</v>
       </c>
@@ -3638,9 +3668,9 @@
       <c r="G62" s="26"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="56"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="51"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="41" t="s">
         <v>73</v>
       </c>
@@ -3649,9 +3679,9 @@
       <c r="G63" s="26"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="56"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="51"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="41" t="s">
         <v>62</v>
       </c>
@@ -3660,9 +3690,9 @@
       <c r="G64" s="26"/>
     </row>
     <row r="65" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A65" s="56"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="51"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="41" t="s">
         <v>63</v>
       </c>
@@ -3671,13 +3701,13 @@
       <c r="G65" s="26"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D66" s="41" t="s">
@@ -3689,9 +3719,9 @@
       <c r="I66" s="37"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="56"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="51"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="41" t="s">
         <v>60</v>
       </c>
@@ -3701,9 +3731,9 @@
       <c r="I67" s="37"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="56"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="51"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="41" t="s">
         <v>73</v>
       </c>
@@ -3713,9 +3743,9 @@
       <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="56"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="51"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="41" t="s">
         <v>62</v>
       </c>
@@ -3725,9 +3755,9 @@
       <c r="I69" s="37"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="56"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="51"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="41" t="s">
         <v>63</v>
       </c>
@@ -3736,11 +3766,11 @@
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="56"/>
-      <c r="B71" s="50" t="s">
+      <c r="A71" s="59"/>
+      <c r="B71" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D71" s="41" t="s">
@@ -3751,9 +3781,9 @@
       <c r="G71" s="26"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="56"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="51"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="41" t="s">
         <v>60</v>
       </c>
@@ -3762,9 +3792,9 @@
       <c r="G72" s="26"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="56"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="41" t="s">
         <v>73</v>
       </c>
@@ -3773,9 +3803,9 @@
       <c r="G73" s="26"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="56"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="41" t="s">
         <v>62</v>
       </c>
@@ -3784,9 +3814,9 @@
       <c r="G74" s="26"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="56"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="51"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="41" t="s">
         <v>63</v>
       </c>
@@ -3795,11 +3825,11 @@
       <c r="G75" s="26"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="56"/>
-      <c r="B76" s="50" t="s">
+      <c r="A76" s="59"/>
+      <c r="B76" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D76" s="41" t="s">
@@ -3810,9 +3840,9 @@
       <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="56"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="51"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="41" t="s">
         <v>60</v>
       </c>
@@ -3821,9 +3851,9 @@
       <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="56"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="51"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="41" t="s">
         <v>73</v>
       </c>
@@ -3832,9 +3862,9 @@
       <c r="G78" s="26"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="56"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="51"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="41" t="s">
         <v>62</v>
       </c>
@@ -3843,9 +3873,9 @@
       <c r="G79" s="26"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="56"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="51"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="41" t="s">
         <v>63</v>
       </c>
@@ -3854,11 +3884,11 @@
       <c r="G80" s="26"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="56"/>
-      <c r="B81" s="50" t="s">
+      <c r="A81" s="59"/>
+      <c r="B81" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="51" t="s">
+      <c r="C81" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D81" s="41" t="s">
@@ -3869,9 +3899,9 @@
       <c r="G81" s="26"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="56"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="51"/>
+      <c r="A82" s="59"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="41" t="s">
         <v>60</v>
       </c>
@@ -3880,9 +3910,9 @@
       <c r="G82" s="26"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="56"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="51"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="41" t="s">
         <v>73</v>
       </c>
@@ -3891,9 +3921,9 @@
       <c r="G83" s="26"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="56"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="51"/>
+      <c r="A84" s="59"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="41" t="s">
         <v>62</v>
       </c>
@@ -3902,9 +3932,9 @@
       <c r="G84" s="26"/>
     </row>
     <row r="85" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A85" s="56"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="51"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="41" t="s">
         <v>63</v>
       </c>
@@ -3913,13 +3943,13 @@
       <c r="G85" s="26"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="55" t="s">
+      <c r="A86" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D86" s="41" t="s">
@@ -3931,9 +3961,9 @@
       <c r="I86" s="37"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="56"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="51"/>
+      <c r="A87" s="59"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="54"/>
       <c r="D87" s="41" t="s">
         <v>60</v>
       </c>
@@ -3943,9 +3973,9 @@
       <c r="I87" s="37"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="56"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="51"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="54"/>
       <c r="D88" s="41" t="s">
         <v>73</v>
       </c>
@@ -3955,9 +3985,9 @@
       <c r="I88" s="37"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="56"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="51"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="54"/>
       <c r="D89" s="41" t="s">
         <v>62</v>
       </c>
@@ -3967,9 +3997,9 @@
       <c r="I89" s="37"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="56"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="51"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="54"/>
       <c r="D90" s="41" t="s">
         <v>63</v>
       </c>
@@ -3978,11 +4008,11 @@
       <c r="G90" s="26"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="56"/>
-      <c r="B91" s="50" t="s">
+      <c r="A91" s="59"/>
+      <c r="B91" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C91" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D91" s="41" t="s">
@@ -3993,9 +4023,9 @@
       <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="56"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="51"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="54"/>
       <c r="D92" s="41" t="s">
         <v>60</v>
       </c>
@@ -4004,9 +4034,9 @@
       <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="56"/>
-      <c r="B93" s="50"/>
-      <c r="C93" s="51"/>
+      <c r="A93" s="59"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="41" t="s">
         <v>73</v>
       </c>
@@ -4015,9 +4045,9 @@
       <c r="G93" s="26"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="56"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="51"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="41" t="s">
         <v>62</v>
       </c>
@@ -4026,9 +4056,9 @@
       <c r="G94" s="26"/>
     </row>
     <row r="95" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A95" s="56"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="51"/>
+      <c r="A95" s="59"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="54"/>
       <c r="D95" s="41" t="s">
         <v>63</v>
       </c>
@@ -4038,13 +4068,13 @@
       <c r="I95" s="35"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="55" t="s">
+      <c r="A96" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B96" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D96" s="41" t="s">
@@ -4056,9 +4086,9 @@
       <c r="I96" s="36"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="56"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="51"/>
+      <c r="A97" s="59"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="54"/>
       <c r="D97" s="41" t="s">
         <v>60</v>
       </c>
@@ -4068,9 +4098,9 @@
       <c r="I97" s="36"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="56"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="51"/>
+      <c r="A98" s="59"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="54"/>
       <c r="D98" s="41" t="s">
         <v>73</v>
       </c>
@@ -4080,9 +4110,9 @@
       <c r="I98" s="36"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="56"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="51"/>
+      <c r="A99" s="59"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="41" t="s">
         <v>62</v>
       </c>
@@ -4092,9 +4122,9 @@
       <c r="I99" s="36"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="56"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="51"/>
+      <c r="A100" s="59"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="54"/>
       <c r="D100" s="41" t="s">
         <v>63</v>
       </c>
@@ -4103,11 +4133,11 @@
       <c r="G100" s="26"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="56"/>
-      <c r="B101" s="50" t="s">
+      <c r="A101" s="59"/>
+      <c r="B101" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C101" s="51" t="s">
+      <c r="C101" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D101" s="41" t="s">
@@ -4118,9 +4148,9 @@
       <c r="G101" s="26"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="56"/>
-      <c r="B102" s="50"/>
-      <c r="C102" s="51"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="54"/>
       <c r="D102" s="41" t="s">
         <v>60</v>
       </c>
@@ -4129,9 +4159,9 @@
       <c r="G102" s="26"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="56"/>
-      <c r="B103" s="50"/>
-      <c r="C103" s="51"/>
+      <c r="A103" s="59"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="54"/>
       <c r="D103" s="41" t="s">
         <v>73</v>
       </c>
@@ -4140,9 +4170,9 @@
       <c r="G103" s="26"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="56"/>
-      <c r="B104" s="50"/>
-      <c r="C104" s="51"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="54"/>
       <c r="D104" s="41" t="s">
         <v>62</v>
       </c>
@@ -4151,9 +4181,9 @@
       <c r="G104" s="26"/>
     </row>
     <row r="105" spans="1:9" ht="14.9" customHeight="1">
-      <c r="A105" s="56"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="51"/>
+      <c r="A105" s="59"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="54"/>
       <c r="D105" s="41" t="s">
         <v>63</v>
       </c>
@@ -4162,13 +4192,13 @@
       <c r="G105" s="26"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="55" t="s">
+      <c r="A106" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B106" s="50" t="s">
+      <c r="B106" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D106" s="41" t="s">
@@ -4179,9 +4209,9 @@
       <c r="G106" s="26"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="56"/>
-      <c r="B107" s="50"/>
-      <c r="C107" s="51"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="41" t="s">
         <v>60</v>
       </c>
@@ -4190,9 +4220,9 @@
       <c r="G107" s="26"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="56"/>
-      <c r="B108" s="50"/>
-      <c r="C108" s="51"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="54"/>
       <c r="D108" s="41" t="s">
         <v>73</v>
       </c>
@@ -4201,9 +4231,9 @@
       <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="56"/>
-      <c r="B109" s="50"/>
-      <c r="C109" s="51"/>
+      <c r="A109" s="59"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="54"/>
       <c r="D109" s="41" t="s">
         <v>62</v>
       </c>
@@ -4212,9 +4242,9 @@
       <c r="G109" s="26"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="56"/>
-      <c r="B110" s="50"/>
-      <c r="C110" s="51"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="54"/>
       <c r="D110" s="41" t="s">
         <v>63</v>
       </c>
@@ -4223,11 +4253,11 @@
       <c r="G110" s="26"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="56"/>
-      <c r="B111" s="50" t="s">
+      <c r="A111" s="59"/>
+      <c r="B111" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C111" s="51" t="s">
+      <c r="C111" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D111" s="41" t="s">
@@ -4238,9 +4268,9 @@
       <c r="G111" s="26"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="56"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="51"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="54"/>
       <c r="D112" s="41" t="s">
         <v>60</v>
       </c>
@@ -4249,9 +4279,9 @@
       <c r="G112" s="26"/>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="56"/>
-      <c r="B113" s="50"/>
-      <c r="C113" s="51"/>
+      <c r="A113" s="59"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="54"/>
       <c r="D113" s="41" t="s">
         <v>73</v>
       </c>
@@ -4260,9 +4290,9 @@
       <c r="G113" s="26"/>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="56"/>
-      <c r="B114" s="50"/>
-      <c r="C114" s="51"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="54"/>
       <c r="D114" s="41" t="s">
         <v>62</v>
       </c>
@@ -4271,9 +4301,9 @@
       <c r="G114" s="34"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="56"/>
-      <c r="B115" s="50"/>
-      <c r="C115" s="51"/>
+      <c r="A115" s="59"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="54"/>
       <c r="D115" s="41" t="s">
         <v>63</v>
       </c>
@@ -4282,13 +4312,13 @@
       <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="55" t="s">
+      <c r="A116" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="50" t="s">
+      <c r="B116" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C116" s="51" t="s">
+      <c r="C116" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D116" s="41" t="s">
@@ -4299,9 +4329,9 @@
       <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="56"/>
-      <c r="B117" s="50"/>
-      <c r="C117" s="51"/>
+      <c r="A117" s="59"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="54"/>
       <c r="D117" s="41" t="s">
         <v>60</v>
       </c>
@@ -4310,9 +4340,9 @@
       <c r="G117" s="26"/>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="56"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="51"/>
+      <c r="A118" s="59"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="54"/>
       <c r="D118" s="41" t="s">
         <v>73</v>
       </c>
@@ -4321,9 +4351,9 @@
       <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="56"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="51"/>
+      <c r="A119" s="59"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="54"/>
       <c r="D119" s="41" t="s">
         <v>62</v>
       </c>
@@ -4332,9 +4362,9 @@
       <c r="G119" s="26"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="56"/>
-      <c r="B120" s="50"/>
-      <c r="C120" s="51"/>
+      <c r="A120" s="59"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="54"/>
       <c r="D120" s="41" t="s">
         <v>63</v>
       </c>
@@ -4343,11 +4373,11 @@
       <c r="G120" s="26"/>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="56"/>
-      <c r="B121" s="50" t="s">
+      <c r="A121" s="59"/>
+      <c r="B121" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C121" s="51" t="s">
+      <c r="C121" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D121" s="41" t="s">
@@ -4358,9 +4388,9 @@
       <c r="G121" s="38"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="56"/>
-      <c r="B122" s="50"/>
-      <c r="C122" s="51"/>
+      <c r="A122" s="59"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="54"/>
       <c r="D122" s="41" t="s">
         <v>60</v>
       </c>
@@ -4369,9 +4399,9 @@
       <c r="G122" s="38"/>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="56"/>
-      <c r="B123" s="50"/>
-      <c r="C123" s="51"/>
+      <c r="A123" s="59"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="54"/>
       <c r="D123" s="41" t="s">
         <v>73</v>
       </c>
@@ -4380,9 +4410,9 @@
       <c r="G123" s="38"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="56"/>
-      <c r="B124" s="50"/>
-      <c r="C124" s="51"/>
+      <c r="A124" s="59"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="54"/>
       <c r="D124" s="41" t="s">
         <v>62</v>
       </c>
@@ -4391,9 +4421,9 @@
       <c r="G124" s="38"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="56"/>
-      <c r="B125" s="50"/>
-      <c r="C125" s="51"/>
+      <c r="A125" s="59"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="54"/>
       <c r="D125" s="41" t="s">
         <v>63</v>
       </c>
@@ -4402,13 +4432,13 @@
       <c r="G125" s="38"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="55" t="s">
+      <c r="A126" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B126" s="50" t="s">
+      <c r="B126" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C126" s="51" t="s">
+      <c r="C126" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D126" s="41" t="s">
@@ -4419,9 +4449,9 @@
       <c r="G126" s="38"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="56"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="51"/>
+      <c r="A127" s="59"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="54"/>
       <c r="D127" s="41" t="s">
         <v>60</v>
       </c>
@@ -4430,9 +4460,9 @@
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="56"/>
-      <c r="B128" s="50"/>
-      <c r="C128" s="51"/>
+      <c r="A128" s="59"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="54"/>
       <c r="D128" s="41" t="s">
         <v>73</v>
       </c>
@@ -4441,9 +4471,9 @@
       <c r="G128" s="38"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="56"/>
-      <c r="B129" s="50"/>
-      <c r="C129" s="51"/>
+      <c r="A129" s="59"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="54"/>
       <c r="D129" s="41" t="s">
         <v>62</v>
       </c>
@@ -4452,9 +4482,9 @@
       <c r="G129" s="38"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="56"/>
-      <c r="B130" s="50"/>
-      <c r="C130" s="51"/>
+      <c r="A130" s="59"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="54"/>
       <c r="D130" s="41" t="s">
         <v>63</v>
       </c>
@@ -4463,11 +4493,11 @@
       <c r="G130" s="38"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="56"/>
-      <c r="B131" s="50" t="s">
+      <c r="A131" s="59"/>
+      <c r="B131" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C131" s="51" t="s">
+      <c r="C131" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D131" s="41" t="s">
@@ -4478,9 +4508,9 @@
       <c r="G131" s="38"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="56"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="51"/>
+      <c r="A132" s="59"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="54"/>
       <c r="D132" s="41" t="s">
         <v>60</v>
       </c>
@@ -4489,9 +4519,9 @@
       <c r="G132" s="38"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="56"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="51"/>
+      <c r="A133" s="59"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="54"/>
       <c r="D133" s="41" t="s">
         <v>73</v>
       </c>
@@ -4500,9 +4530,9 @@
       <c r="G133" s="38"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="56"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="51"/>
+      <c r="A134" s="59"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="54"/>
       <c r="D134" s="41" t="s">
         <v>62</v>
       </c>
@@ -4511,9 +4541,9 @@
       <c r="G134" s="38"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="56"/>
-      <c r="B135" s="50"/>
-      <c r="C135" s="51"/>
+      <c r="A135" s="59"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="54"/>
       <c r="D135" s="41" t="s">
         <v>63</v>
       </c>
@@ -4522,13 +4552,13 @@
       <c r="G135" s="38"/>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="52" t="s">
+      <c r="A136" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="50">
+      <c r="B136" s="53">
         <v>692</v>
       </c>
-      <c r="C136" s="51" t="s">
+      <c r="C136" s="54" t="s">
         <v>107</v>
       </c>
       <c r="D136" s="41" t="s">
@@ -4539,9 +4569,9 @@
       <c r="G136" s="38"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="53"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="51"/>
+      <c r="A137" s="61"/>
+      <c r="B137" s="53"/>
+      <c r="C137" s="54"/>
       <c r="D137" s="41" t="s">
         <v>60</v>
       </c>
@@ -4550,9 +4580,9 @@
       <c r="G137" s="38"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="53"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="51"/>
+      <c r="A138" s="61"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="54"/>
       <c r="D138" s="41" t="s">
         <v>73</v>
       </c>
@@ -4561,9 +4591,9 @@
       <c r="G138" s="39"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="53"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="51"/>
+      <c r="A139" s="61"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="54"/>
       <c r="D139" s="41" t="s">
         <v>62</v>
       </c>
@@ -4572,9 +4602,9 @@
       <c r="G139" s="39"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="54"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="51"/>
+      <c r="A140" s="62"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="54"/>
       <c r="D140" s="41" t="s">
         <v>63</v>
       </c>
@@ -4585,15 +4615,50 @@
   </sheetData>
   <autoFilter ref="A1:H140" xr:uid="{62398E3D-9E42-4D35-B734-C747CB49DED4}"/>
   <mergeCells count="66">
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="C126:C130"/>
+    <mergeCell ref="B131:B135"/>
+    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="A116:A125"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="C116:C120"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C121:C125"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="B111:B115"/>
+    <mergeCell ref="C111:C115"/>
+    <mergeCell ref="A96:A105"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C101:C105"/>
+    <mergeCell ref="A86:A95"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="C91:C95"/>
+    <mergeCell ref="A66:A85"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="C66:C70"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="A51:A65"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="C61:C65"/>
     <mergeCell ref="C41:C45"/>
     <mergeCell ref="B46:B50"/>
     <mergeCell ref="C46:C50"/>
@@ -4607,50 +4672,15 @@
     <mergeCell ref="B36:B40"/>
     <mergeCell ref="C36:C40"/>
     <mergeCell ref="B41:B45"/>
-    <mergeCell ref="A51:A65"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="A66:A85"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="C66:C70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="A86:A95"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="B91:B95"/>
-    <mergeCell ref="C91:C95"/>
-    <mergeCell ref="A96:A105"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C101:C105"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="C111:C115"/>
-    <mergeCell ref="A116:A125"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="C116:C120"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="C121:C125"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A126:A135"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="C126:C130"/>
-    <mergeCell ref="B131:B135"/>
-    <mergeCell ref="C131:C135"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
